--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="26920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3048,7 +3048,7 @@
   <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="J164" sqref="J164"/>
+      <selection activeCell="O156" sqref="O156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -2043,11 +2043,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2067,17 +2067,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2096,28 +2102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2126,17 +2110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2166,9 +2141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2183,21 +2158,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2210,14 +2209,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2232,7 +2232,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,43 +2262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2304,7 +2292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,25 +2304,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,19 +2340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,13 +2358,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,25 +2400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,23 +2450,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2495,17 +2504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2523,172 +2521,181 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2699,6 +2706,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3047,4294 +3059,4294 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="O156" sqref="O156"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.69230769230769" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.5384615384615" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.69230769230769" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>38930</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>35639</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>35543</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>36738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>38203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>40059</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>40604</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>40844</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>40758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>41040</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>42545</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>42165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>38049</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>40763</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>35948</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>37923</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>40604</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>41667</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>42870</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>40500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>42773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="7">
         <v>40116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
         <v>34093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="7">
         <v>37788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>36817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="7">
         <v>36732</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="7">
         <v>40449</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="7">
         <v>38124</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="7">
         <v>35569</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>40743</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="7">
         <v>42822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="7">
         <v>35417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="7">
         <v>39622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>38490</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="7">
         <v>44189</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>43389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="7">
         <v>41054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="7">
         <v>35368</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>43228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="7">
         <v>36353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="7">
         <v>40716</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="7">
         <v>34460</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="7">
         <v>35248</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="7">
         <v>40101</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="7">
         <v>36096</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="7">
         <v>35279</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="7">
         <v>35489</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="7">
         <v>36875</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="7">
         <v>35607</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="7">
         <v>35935</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="7">
         <v>38173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="7">
         <v>34250</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="7">
         <v>40850</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="7">
         <v>37078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="7">
         <v>35677</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="7">
         <v>43601</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="7">
         <v>35292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="7">
         <v>35598</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="7">
         <v>37834</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="7">
         <v>40491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>60</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="7">
         <v>36896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="7">
         <v>37799</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>62</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="7">
         <v>36622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>63</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="7">
         <v>39297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>64</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="7">
         <v>36902</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="7">
         <v>42824</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>66</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="7">
         <v>43248</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>67</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="7">
         <v>41535</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>68</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="7">
         <v>35387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>69</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="7">
         <v>34404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>70</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="7">
         <v>42478</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>71</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="7">
         <v>42137</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>72</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="7">
         <v>38231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>73</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="7">
         <v>44453</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>74</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="7">
         <v>35696</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>75</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="7">
         <v>39041</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>76</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="7">
         <v>37294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>77</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="7">
         <v>39701</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>78</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="7">
         <v>42524</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>79</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="7">
         <v>40767</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>80</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="7">
         <v>39584</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>81</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="7">
         <v>41689</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="3">
+    <row r="84" s="2" customFormat="1" spans="1:6">
+      <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="11">
         <v>39517</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3">
+    <row r="85" s="2" customFormat="1" spans="1:6">
+      <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="11">
         <v>39419</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>84</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="7">
         <v>42527</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="3">
+    <row r="87" s="2" customFormat="1" spans="1:6">
+      <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="11">
         <v>40977</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>86</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="7">
         <v>37705</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>87</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="7">
         <v>42979</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="7">
         <v>38454</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="7">
         <v>36362</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>90</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="7">
         <v>35242</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>91</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="7">
         <v>36552</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>92</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="7">
         <v>36934</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>93</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="7">
         <v>36791</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>94</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="7">
         <v>39563</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>95</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="7">
         <v>43668</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>96</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="7">
         <v>41191</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>97</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="7">
         <v>42800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>98</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="7">
         <v>40400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>99</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="7">
         <v>35710</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="7">
         <v>35619</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="3">
+      <c r="A103" s="4">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="7">
         <v>37467</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="7">
         <v>39463</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="3">
+      <c r="A105" s="4">
         <v>103</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="7">
         <v>35216</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>104</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="7">
         <v>35305</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>105</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="7">
         <v>35110</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>106</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="7">
         <v>36909</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>107</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="7">
         <v>44277</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>108</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="7">
         <v>37712</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>109</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="7">
         <v>40722</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>110</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="7">
         <v>43783</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>111</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="7">
         <v>35591</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>112</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="7">
         <v>41908</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>113</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="7">
         <v>35759</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>114</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="7">
         <v>40472</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="3">
+      <c r="A117" s="4">
         <v>115</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="7">
         <v>42536</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>116</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="7">
         <v>34309</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="3">
+      <c r="A119" s="4">
         <v>117</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="7">
         <v>37042</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>118</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="7">
         <v>39190</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="3">
+      <c r="A121" s="4">
         <v>119</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="7">
         <v>34340</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>120</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="7">
         <v>34432</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="3">
+      <c r="A123" s="4">
         <v>121</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="7">
         <v>36510</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>122</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="7">
         <v>43570</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="3">
+      <c r="A125" s="4">
         <v>123</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125" s="7">
         <v>43543</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="3">
+      <c r="A126" s="4">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126" s="7">
         <v>40400</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="3">
+      <c r="A127" s="4">
         <v>125</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127" s="7">
         <v>43262</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="3">
+      <c r="A128" s="4">
         <v>126</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128" s="7">
         <v>40116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="3">
+      <c r="A129" s="4">
         <v>127</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129" s="7">
         <v>35100</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="3">
+      <c r="A130" s="4">
         <v>128</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130" s="7">
         <v>43322</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="3">
+      <c r="A131" s="4">
         <v>129</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131" s="7">
         <v>40654</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>130</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132" s="7">
         <v>35599</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="3">
+      <c r="A133" s="4">
         <v>131</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133" s="7">
         <v>40829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>132</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F134" s="7">
         <v>42138</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="3">
+      <c r="A135" s="4">
         <v>133</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135" s="7">
         <v>40186</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>134</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F136" s="7">
         <v>40379</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="3">
+      <c r="A137" s="4">
         <v>135</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137" s="7">
         <v>38048</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>136</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F138" s="7">
         <v>40849</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="3">
+      <c r="A139" s="4">
         <v>137</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F139" s="7">
         <v>37609</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>138</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140" s="7">
         <v>41010</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="3">
+      <c r="A141" s="4">
         <v>139</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F141" s="7">
         <v>37592</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>140</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F142" s="7">
         <v>43488</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="3">
+      <c r="A143" s="4">
         <v>141</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143" s="7">
         <v>41040</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>142</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144" s="7">
         <v>40716</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="3">
+      <c r="A145" s="4">
         <v>143</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="7">
         <v>41894</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>144</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="7">
         <v>38016</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="3">
+      <c r="A147" s="4">
         <v>145</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="7">
         <v>40347</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>146</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="7">
         <v>39710</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="3">
+      <c r="A149" s="4">
         <v>147</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="7">
         <v>40983</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>148</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="7">
         <v>39246</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="3">
+      <c r="A151" s="4">
         <v>149</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="7">
         <v>44060</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>150</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="7">
         <v>36903</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="3">
+      <c r="A153" s="4">
         <v>151</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="7">
         <v>44046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="7">
         <v>40220</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="3">
+      <c r="A155" s="4">
         <v>153</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="7">
         <v>40059</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="3">
+      <c r="A156" s="4">
         <v>154</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="7">
         <v>42859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="3">
+      <c r="A157" s="4">
         <v>155</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="7">
         <v>37568</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="3">
+      <c r="A158" s="4">
         <v>156</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="7">
         <v>35213</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="3">
+      <c r="A159" s="4">
         <v>157</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="7">
         <v>35305</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="3">
+      <c r="A160" s="4">
         <v>158</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160" s="7">
         <v>43634</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="3">
+      <c r="A161" s="4">
         <v>159</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F161" s="7">
         <v>42947</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="3">
+      <c r="A162" s="4">
         <v>160</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F162" s="7">
         <v>42081</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="3">
+      <c r="A163" s="4">
         <v>161</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F163" s="7">
         <v>42761</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="3">
+      <c r="A164" s="4">
         <v>162</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164" s="7">
         <v>42741</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="3">
+      <c r="A165" s="4">
         <v>163</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F165" s="7">
         <v>40618</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="3">
+      <c r="A166" s="4">
         <v>164</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F166" s="7">
         <v>35517</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="3">
+      <c r="A167" s="4">
         <v>165</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F167" s="7">
         <v>39652</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="3">
+      <c r="A168" s="4">
         <v>166</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168" s="7">
         <v>43671</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="3">
+      <c r="A169" s="4">
         <v>167</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F169" s="7">
         <v>34432</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="3">
+      <c r="A170" s="4">
         <v>168</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F170" s="7">
         <v>38952</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="3">
+      <c r="A171" s="4">
         <v>169</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F171" s="7">
         <v>42774</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="3">
+      <c r="A172" s="4">
         <v>170</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F172" s="7">
         <v>42348</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="1:6">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>171</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="8">
         <v>39588</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="3">
+      <c r="A174" s="4">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F174" s="7">
         <v>39671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="3">
+      <c r="A175" s="4">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="E175" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F175" s="7">
         <v>42755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="3">
+      <c r="A176" s="4">
         <v>174</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="E176" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F176" s="7">
         <v>37971</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="3">
+      <c r="A177" s="4">
         <v>175</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="E177" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177" s="7">
         <v>40323</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" spans="1:6">
-      <c r="A178" s="4">
+      <c r="A178" s="5">
         <v>176</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="8">
         <v>40326</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="3">
+      <c r="A179" s="4">
         <v>177</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179" s="7">
         <v>44193</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="3">
+      <c r="A180" s="4">
         <v>178</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F180" s="7">
         <v>41193</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="3">
+      <c r="A181" s="4">
         <v>179</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F181" s="7">
         <v>39037</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="3">
+      <c r="A182" s="4">
         <v>180</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F182" s="7">
         <v>36850</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="3">
+      <c r="A183" s="4">
         <v>181</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F183" s="6">
+      <c r="F183" s="7">
         <v>41009</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="3">
+      <c r="A184" s="4">
         <v>182</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F184" s="7">
         <v>37538</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="3">
+      <c r="A185" s="4">
         <v>183</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F185" s="7">
         <v>36872</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="3">
+      <c r="A186" s="4">
         <v>184</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186" s="7">
         <v>35587</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="3">
+      <c r="A187" s="4">
         <v>185</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F187" s="7">
         <v>37498</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="3">
+      <c r="A188" s="4">
         <v>186</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188" s="7">
         <v>42584</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="3">
+      <c r="A189" s="4">
         <v>187</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F189" s="7">
         <v>33331</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="3">
+      <c r="A190" s="4">
         <v>188</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F190" s="7">
         <v>39118</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="3">
+      <c r="A191" s="4">
         <v>189</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F191" s="7">
         <v>43767</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="3">
+      <c r="A192" s="4">
         <v>190</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192" s="7">
         <v>35381</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="3">
+      <c r="A193" s="4">
         <v>191</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F193" s="7">
         <v>35592</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="3">
+      <c r="A194" s="4">
         <v>192</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F194" s="7">
         <v>35642</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="3">
+      <c r="A195" s="4">
         <v>193</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F195" s="7">
         <v>42030</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="3">
+      <c r="A196" s="4">
         <v>194</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F196" s="7">
         <v>42153</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="3">
+      <c r="A197" s="4">
         <v>195</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F197" s="7">
         <v>42710</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="3">
+      <c r="A198" s="4">
         <v>196</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F198" s="7">
         <v>39142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="3">
+      <c r="A199" s="4">
         <v>197</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F199" s="7">
         <v>39441</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="3">
+      <c r="A200" s="4">
         <v>198</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F200" s="7">
         <v>42002</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="3">
+      <c r="A201" s="4">
         <v>199</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F201" s="7">
         <v>42501</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="3">
+      <c r="A202" s="4">
         <v>200</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F202" s="6">
+      <c r="F202" s="7">
         <v>40256</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="3">
+      <c r="A203" s="4">
         <v>201</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F203" s="6">
+      <c r="F203" s="7">
         <v>37627</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="3">
+      <c r="A204" s="4">
         <v>202</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F204" s="6">
+      <c r="F204" s="7">
         <v>40505</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="3">
+      <c r="A205" s="4">
         <v>203</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F205" s="7">
         <v>34340</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="3">
+      <c r="A206" s="4">
         <v>204</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="6">
+      <c r="F206" s="7">
         <v>37130</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="3">
+      <c r="A207" s="4">
         <v>205</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F207" s="7">
         <v>35733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="3">
+      <c r="A208" s="4">
         <v>206</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F208" s="6">
+      <c r="F208" s="7">
         <v>40408</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="3">
+      <c r="A209" s="4">
         <v>207</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="6">
+      <c r="F209" s="7">
         <v>35627</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="3">
+      <c r="A210" s="4">
         <v>208</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="6">
+      <c r="F210" s="7">
         <v>41816</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="3">
+      <c r="A211" s="4">
         <v>209</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F211" s="6">
+      <c r="F211" s="7">
         <v>40844</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="3">
+      <c r="A212" s="4">
         <v>210</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="6">
+      <c r="F212" s="7">
         <v>35912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="3">
+      <c r="A213" s="4">
         <v>211</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F213" s="6">
+      <c r="F213" s="7">
         <v>36419</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="3">
+      <c r="A214" s="4">
         <v>212</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F214" s="7">
         <v>37496</v>
       </c>
     </row>

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -2043,11 +2043,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2067,14 +2067,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2089,16 +2112,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2111,7 +2127,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2133,17 +2157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2166,30 +2188,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2202,22 +2209,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2226,7 +2226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF7F43F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,7 +2238,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2250,7 +2388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,163 +2424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,6 +2462,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2465,15 +2501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2484,21 +2511,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2519,6 +2531,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2529,173 +2556,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2704,13 +2718,23 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2764,6 +2788,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F7F43F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3059,1674 +3088,1674 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.69230769230769" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.5384615384615" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.69230769230769" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="13">
         <v>38930</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="14">
         <v>35639</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4">
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="14">
         <v>35543</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
         <v>36738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="13">
         <v>38203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="13">
         <v>40059</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="13">
         <v>40604</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="13">
         <v>40844</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="13">
         <v>40758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="13">
         <v>41040</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="13">
         <v>42545</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="13">
         <v>42165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="13">
         <v>38049</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="13">
         <v>40763</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
+    <row r="16" s="2" customFormat="1" spans="1:6">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>35948</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4">
+    <row r="17" s="2" customFormat="1" spans="1:6">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="15">
         <v>37923</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="13">
         <v>40604</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="13">
         <v>41667</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4">
+    <row r="20" s="2" customFormat="1" spans="1:6">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <v>42870</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="13">
         <v>40500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="13">
         <v>42773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="13">
         <v>40116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="13">
         <v>34093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="4">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="13">
         <v>37788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="13">
         <v>36817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="13">
         <v>36732</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="4">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="13">
         <v>40449</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="13">
         <v>38124</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="4">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="13">
         <v>35569</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="13">
         <v>40743</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="4">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="13">
         <v>42822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="4">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="13">
         <v>35417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="13">
         <v>39622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="4">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="13">
         <v>38490</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="4">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="13">
         <v>44189</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="5">
+    <row r="37" s="3" customFormat="1" spans="1:6">
+      <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="16">
         <v>43389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="13">
         <v>41054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="4">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="13">
         <v>35368</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:6">
-      <c r="A40" s="5">
+    <row r="40" s="3" customFormat="1" spans="1:6">
+      <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="16">
         <v>43228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="4">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="13">
         <v>36353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="4">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="13">
         <v>40716</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="4">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="13">
         <v>34460</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="4">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="13">
         <v>35248</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="4">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="13">
         <v>40101</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="4">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="13">
         <v>36096</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="4">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="13">
         <v>35279</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="4">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="13">
         <v>35489</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4">
+    <row r="49" s="2" customFormat="1" spans="1:6">
+      <c r="A49" s="9">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="15">
         <v>36875</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="4">
+    <row r="50" s="2" customFormat="1" spans="1:6">
+      <c r="A50" s="9">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="15">
         <v>35607</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="4">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="13">
         <v>35935</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4">
+    <row r="52" s="3" customFormat="1" spans="1:6">
+      <c r="A52" s="11">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="16">
         <v>38173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="4">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="13">
         <v>34250</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="4">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="13">
         <v>40850</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4">
+    <row r="55" s="3" customFormat="1" spans="1:6">
+      <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="16">
         <v>37078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="13">
         <v>35677</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="4">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="13">
         <v>43601</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="4">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="13">
         <v>35292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="4">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="13">
         <v>35598</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="4">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="13">
         <v>37834</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="4">
+      <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="13">
         <v>40491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="4">
+      <c r="A62" s="6">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="13">
         <v>36896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="4">
+      <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="13">
         <v>37799</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4">
+      <c r="A64" s="6">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="13">
         <v>36622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="4">
+      <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="13">
         <v>39297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="4">
+      <c r="A66" s="6">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="13">
         <v>36902</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="4">
+      <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="13">
         <v>42824</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="4">
+      <c r="A68" s="6">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="13">
         <v>43248</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="4">
+      <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="13">
         <v>41535</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="4">
+      <c r="A70" s="6">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="13">
         <v>35387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="4">
+      <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="13">
         <v>34404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="4">
+      <c r="A72" s="6">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="13">
         <v>42478</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="4">
+      <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="13">
         <v>42137</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="4">
+      <c r="A74" s="6">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="13">
         <v>38231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="4">
+      <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="13">
         <v>44453</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="4">
+      <c r="A76" s="6">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="13">
         <v>35696</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="4">
+      <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="13">
         <v>39041</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="4">
+      <c r="A78" s="6">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="13">
         <v>37294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="4">
+      <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="13">
         <v>39701</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="4">
+      <c r="A80" s="6">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="13">
         <v>42524</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="4">
+      <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="13">
         <v>40767</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="4">
+      <c r="A82" s="6">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="13">
         <v>39584</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="4">
+      <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="13">
         <v>41689</v>
       </c>
     </row>
@@ -4746,7 +4775,7 @@
       <c r="E84" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="15">
         <v>39517</v>
       </c>
     </row>
@@ -4766,27 +4795,27 @@
       <c r="E85" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="15">
         <v>39419</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="4">
+      <c r="A86" s="6">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="13">
         <v>42527</v>
       </c>
     </row>
@@ -4806,2547 +4835,2547 @@
       <c r="E87" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="15">
         <v>40977</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="4">
+      <c r="A88" s="6">
         <v>86</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="13">
         <v>37705</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4">
+      <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="13">
         <v>42979</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="4">
+      <c r="A90" s="6">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="13">
         <v>38454</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="4">
+      <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="13">
         <v>36362</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="4">
+    <row r="92" s="3" customFormat="1" spans="1:6">
+      <c r="A92" s="11">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="16">
         <v>35242</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="4">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="13">
         <v>36552</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="4">
+    <row r="94" s="3" customFormat="1" spans="1:6">
+      <c r="A94" s="11">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="16">
         <v>36934</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="4">
+      <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="13">
         <v>36791</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="4">
+      <c r="A96" s="6">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="13">
         <v>39563</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="4">
+      <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="13">
         <v>43668</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="4">
+      <c r="A98" s="6">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="13">
         <v>41191</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="4">
+      <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="13">
         <v>42800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4">
+      <c r="A100" s="6">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="13">
         <v>40400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="4">
+      <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="13">
         <v>35710</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="4">
+      <c r="A102" s="6">
         <v>100</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="13">
         <v>35619</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="4">
+      <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="13">
         <v>37467</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="4">
+      <c r="A104" s="6">
         <v>102</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="13">
         <v>39463</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="4">
+      <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="13">
         <v>35216</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="4">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="13">
         <v>35305</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="4">
+      <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="13">
         <v>35110</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="4">
+      <c r="A108" s="6">
         <v>106</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="13">
         <v>36909</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="4">
+      <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="13">
         <v>44277</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="4">
+      <c r="A110" s="6">
         <v>108</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="13">
         <v>37712</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="4">
+      <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="13">
         <v>40722</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="4">
+      <c r="A112" s="6">
         <v>110</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="13">
         <v>43783</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="4">
+      <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="13">
         <v>35591</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="4">
+      <c r="A114" s="6">
         <v>112</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="13">
         <v>41908</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="4">
+      <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="13">
         <v>35759</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="4">
+      <c r="A116" s="6">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="13">
         <v>40472</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="4">
+      <c r="A117" s="6">
         <v>115</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="13">
         <v>42536</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="4">
+      <c r="A118" s="6">
         <v>116</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="13">
         <v>34309</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="4">
+      <c r="A119" s="6">
         <v>117</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="13">
         <v>37042</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="4">
+      <c r="A120" s="6">
         <v>118</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="13">
         <v>39190</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="4">
+      <c r="A121" s="6">
         <v>119</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="13">
         <v>34340</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="4">
+      <c r="A122" s="6">
         <v>120</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="13">
         <v>34432</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="4">
+      <c r="A123" s="6">
         <v>121</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="13">
         <v>36510</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="4">
+      <c r="A124" s="6">
         <v>122</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="13">
         <v>43570</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="4">
+    <row r="125" s="4" customFormat="1" spans="1:6">
+      <c r="A125" s="17">
         <v>123</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="19">
         <v>43543</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="4">
+      <c r="A126" s="6">
         <v>124</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="13">
         <v>40400</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="4">
+    <row r="127" s="3" customFormat="1" spans="1:6">
+      <c r="A127" s="11">
         <v>125</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="16">
         <v>43262</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="4">
+    <row r="128" s="3" customFormat="1" spans="1:6">
+      <c r="A128" s="11">
         <v>126</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="16">
         <v>40116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="4">
+      <c r="A129" s="6">
         <v>127</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="13">
         <v>35100</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="4">
+    <row r="130" s="4" customFormat="1" spans="1:6">
+      <c r="A130" s="17">
         <v>128</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="19">
         <v>43322</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="4">
+      <c r="A131" s="6">
         <v>129</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="13">
         <v>40654</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="4">
+      <c r="A132" s="6">
         <v>130</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="13">
         <v>35599</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="4">
+      <c r="A133" s="6">
         <v>131</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="13">
         <v>40829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="4">
+      <c r="A134" s="6">
         <v>132</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="13">
         <v>42138</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="4">
+      <c r="A135" s="6">
         <v>133</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="13">
         <v>40186</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="4">
+      <c r="A136" s="6">
         <v>134</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="13">
         <v>40379</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="4">
+      <c r="A137" s="6">
         <v>135</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="13">
         <v>38048</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="4">
+      <c r="A138" s="6">
         <v>136</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="13">
         <v>40849</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="4">
+      <c r="A139" s="6">
         <v>137</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="13">
         <v>37609</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="4">
+      <c r="A140" s="6">
         <v>138</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="13">
         <v>41010</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="4">
+      <c r="A141" s="6">
         <v>139</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="13">
         <v>37592</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="4">
+      <c r="A142" s="6">
         <v>140</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="13">
         <v>43488</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="4">
+      <c r="A143" s="6">
         <v>141</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="13">
         <v>41040</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="4">
+      <c r="A144" s="6">
         <v>142</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="13">
         <v>40716</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="4">
+      <c r="A145" s="6">
         <v>143</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="13">
         <v>41894</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="4">
+      <c r="A146" s="6">
         <v>144</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="13">
         <v>38016</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="4">
+      <c r="A147" s="6">
         <v>145</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="13">
         <v>40347</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="4">
+      <c r="A148" s="6">
         <v>146</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="13">
         <v>39710</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="4">
+      <c r="A149" s="6">
         <v>147</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="13">
         <v>40983</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="4">
+      <c r="A150" s="6">
         <v>148</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="13">
         <v>39246</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="4">
+      <c r="A151" s="6">
         <v>149</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="13">
         <v>44060</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="4">
+      <c r="A152" s="6">
         <v>150</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="13">
         <v>36903</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="4">
+      <c r="A153" s="6">
         <v>151</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="13">
         <v>44046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="4">
+      <c r="A154" s="6">
         <v>152</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="13">
         <v>40220</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="4">
+      <c r="A155" s="6">
         <v>153</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="13">
         <v>40059</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4">
+      <c r="A156" s="6">
         <v>154</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="13">
         <v>42859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="4">
+      <c r="A157" s="6">
         <v>155</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="13">
         <v>37568</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="4">
+      <c r="A158" s="6">
         <v>156</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="13">
         <v>35213</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="4">
+      <c r="A159" s="6">
         <v>157</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="13">
         <v>35305</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="4">
+      <c r="A160" s="6">
         <v>158</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="13">
         <v>43634</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="4">
+      <c r="A161" s="6">
         <v>159</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="13">
         <v>42947</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="4">
+      <c r="A162" s="6">
         <v>160</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="13">
         <v>42081</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="4">
+      <c r="A163" s="6">
         <v>161</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="13">
         <v>42761</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="4">
+      <c r="A164" s="6">
         <v>162</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="13">
         <v>42741</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="4">
+      <c r="A165" s="6">
         <v>163</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="13">
         <v>40618</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="4">
+      <c r="A166" s="6">
         <v>164</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="13">
         <v>35517</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="4">
+      <c r="A167" s="6">
         <v>165</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="13">
         <v>39652</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="4">
+      <c r="A168" s="6">
         <v>166</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="13">
         <v>43671</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="4">
+      <c r="A169" s="6">
         <v>167</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="13">
         <v>34432</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="4">
+      <c r="A170" s="6">
         <v>168</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="13">
         <v>38952</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="4">
+      <c r="A171" s="6">
         <v>169</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="13">
         <v>42774</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="4">
+      <c r="A172" s="6">
         <v>170</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="13">
         <v>42348</v>
       </c>
     </row>
-    <row r="173" s="1" customFormat="1" spans="1:6">
-      <c r="A173" s="5">
+    <row r="173" s="3" customFormat="1" spans="1:6">
+      <c r="A173" s="11">
         <v>171</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="F173" s="8">
+      <c r="F173" s="16">
         <v>39588</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="4">
+      <c r="A174" s="6">
         <v>172</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="13">
         <v>39671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="4">
+      <c r="A175" s="6">
         <v>173</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="13">
         <v>42755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="4">
+      <c r="A176" s="6">
         <v>174</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="13">
         <v>37971</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="4">
+      <c r="A177" s="6">
         <v>175</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="13">
         <v>40323</v>
       </c>
     </row>
-    <row r="178" s="1" customFormat="1" spans="1:6">
-      <c r="A178" s="5">
+    <row r="178" s="3" customFormat="1" spans="1:6">
+      <c r="A178" s="11">
         <v>176</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D178" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="E178" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="F178" s="8">
+      <c r="F178" s="16">
         <v>40326</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="4">
+      <c r="A179" s="6">
         <v>177</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="13">
         <v>44193</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="4">
+      <c r="A180" s="6">
         <v>178</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="13">
         <v>41193</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="4">
+      <c r="A181" s="6">
         <v>179</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="13">
         <v>39037</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="4">
+      <c r="A182" s="6">
         <v>180</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="7">
+      <c r="F182" s="13">
         <v>36850</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="4">
+      <c r="A183" s="6">
         <v>181</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="F183" s="7">
+      <c r="F183" s="13">
         <v>41009</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="4">
+      <c r="A184" s="6">
         <v>182</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="7">
+      <c r="F184" s="13">
         <v>37538</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="4">
+      <c r="A185" s="6">
         <v>183</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F185" s="7">
+      <c r="F185" s="13">
         <v>36872</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="4">
+      <c r="A186" s="6">
         <v>184</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="7">
+      <c r="F186" s="13">
         <v>35587</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="4">
+      <c r="A187" s="6">
         <v>185</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F187" s="7">
+      <c r="F187" s="13">
         <v>37498</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="4">
+      <c r="A188" s="6">
         <v>186</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F188" s="7">
+      <c r="F188" s="13">
         <v>42584</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="4">
+      <c r="A189" s="6">
         <v>187</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F189" s="7">
+      <c r="F189" s="13">
         <v>33331</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="4">
+      <c r="A190" s="6">
         <v>188</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F190" s="7">
+      <c r="F190" s="13">
         <v>39118</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="4">
+      <c r="A191" s="6">
         <v>189</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="7">
+      <c r="F191" s="13">
         <v>43767</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="4">
+      <c r="A192" s="6">
         <v>190</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F192" s="7">
+      <c r="F192" s="13">
         <v>35381</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="4">
+      <c r="A193" s="6">
         <v>191</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F193" s="7">
+      <c r="F193" s="13">
         <v>35592</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="4">
+      <c r="A194" s="6">
         <v>192</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F194" s="7">
+      <c r="F194" s="13">
         <v>35642</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="4">
+      <c r="A195" s="6">
         <v>193</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="7">
+      <c r="F195" s="13">
         <v>42030</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="4">
+      <c r="A196" s="6">
         <v>194</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="7">
+      <c r="F196" s="13">
         <v>42153</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="4">
+      <c r="A197" s="6">
         <v>195</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F197" s="7">
+      <c r="F197" s="13">
         <v>42710</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="4">
+      <c r="A198" s="6">
         <v>196</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F198" s="7">
+      <c r="F198" s="13">
         <v>39142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="4">
+      <c r="A199" s="6">
         <v>197</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="13">
         <v>39441</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="4">
+      <c r="A200" s="6">
         <v>198</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="7">
+      <c r="F200" s="13">
         <v>42002</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="4">
+      <c r="A201" s="6">
         <v>199</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="13">
         <v>42501</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="4">
+      <c r="A202" s="6">
         <v>200</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F202" s="7">
+      <c r="F202" s="13">
         <v>40256</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="4">
+      <c r="A203" s="6">
         <v>201</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F203" s="7">
+      <c r="F203" s="13">
         <v>37627</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="4">
+      <c r="A204" s="6">
         <v>202</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F204" s="7">
+      <c r="F204" s="13">
         <v>40505</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="4">
+      <c r="A205" s="6">
         <v>203</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="13">
         <v>34340</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="4">
+      <c r="A206" s="6">
         <v>204</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="7">
+      <c r="F206" s="13">
         <v>37130</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="4">
+      <c r="A207" s="6">
         <v>205</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F207" s="7">
+      <c r="F207" s="13">
         <v>35733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="4">
+      <c r="A208" s="6">
         <v>206</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F208" s="7">
+      <c r="F208" s="13">
         <v>40408</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="4">
+      <c r="A209" s="6">
         <v>207</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="7">
+      <c r="F209" s="13">
         <v>35627</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="4">
+      <c r="A210" s="6">
         <v>208</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="7">
+      <c r="F210" s="13">
         <v>41816</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="4">
+      <c r="A211" s="6">
         <v>209</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F211" s="7">
+      <c r="F211" s="13">
         <v>40844</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="4">
+      <c r="A212" s="6">
         <v>210</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="7">
+      <c r="F212" s="13">
         <v>35912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="4">
+      <c r="A213" s="6">
         <v>211</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F213" s="7">
+      <c r="F213" s="13">
         <v>36419</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="4">
+      <c r="A214" s="6">
         <v>212</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="7">
+      <c r="F214" s="13">
         <v>37496</v>
       </c>
     </row>

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26920" windowHeight="13420"/>
+    <workbookView windowWidth="26920" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="持仓" sheetId="1" r:id="rId1"/>
+    <sheet name="行业" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675">
   <si>
     <t>code</t>
   </si>
@@ -2036,6 +2037,9 @@
   </si>
   <si>
     <t>99078.000000</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -2043,13 +2047,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,8 +2077,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,6 +2107,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2088,23 +2129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2123,13 +2149,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2157,8 +2176,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2172,46 +2221,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2223,6 +2242,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2238,13 +2263,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,7 +2293,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2268,19 +2401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,25 +2419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,115 +2449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,30 +2481,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2496,7 +2491,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2517,16 +2512,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2548,6 +2543,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2556,181 +2560,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3088,4295 +3113,4654 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.69230769230769" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.5384615384615" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.69230769230769" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="17">
         <v>38930</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="7">
+    <row r="3" s="5" customFormat="1" spans="1:6">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="18">
         <v>35639</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="7">
+    <row r="4" s="5" customFormat="1" spans="1:6">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="18">
         <v>35543</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="17">
         <v>36738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="17">
         <v>38203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="17">
         <v>40059</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6">
+    <row r="8" s="6" customFormat="1" spans="1:6">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="19">
         <v>40604</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6">
+    <row r="9" s="6" customFormat="1" spans="1:6">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="19">
         <v>40844</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="17">
         <v>40758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>41040</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="17">
         <v>42545</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="17">
         <v>42165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="17">
         <v>38049</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="17">
         <v>40763</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
-      <c r="A16" s="9">
+    <row r="16" s="7" customFormat="1" spans="1:6">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="20">
         <v>35948</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="9">
+    <row r="17" s="7" customFormat="1" spans="1:6">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="20">
         <v>37923</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="6">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="17">
         <v>40604</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="17">
         <v>41667</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
-      <c r="A20" s="9">
+    <row r="20" s="7" customFormat="1" spans="1:6">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="20">
         <v>42870</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="6">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="17">
         <v>40500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="6">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="17">
         <v>42773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="6">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="17">
         <v>40116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="6">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="17">
         <v>34093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="6">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="17">
         <v>37788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="6">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="17">
         <v>36817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="6">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="17">
         <v>36732</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="17">
         <v>40449</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="17">
         <v>38124</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="6">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="17">
         <v>35569</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="6">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="17">
         <v>40743</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="6">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="17">
         <v>42822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="6">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="17">
         <v>35417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="6">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="17">
         <v>39622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="6">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="17">
         <v>38490</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="6">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="17">
         <v>44189</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:6">
-      <c r="A37" s="11">
+    <row r="37" s="6" customFormat="1" spans="1:6">
+      <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="19">
         <v>43389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="6">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="17">
         <v>41054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="6">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="17">
         <v>35368</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:6">
-      <c r="A40" s="11">
+    <row r="40" s="6" customFormat="1" spans="1:6">
+      <c r="A40" s="13">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="19">
         <v>43228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="6">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="17">
         <v>36353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="6">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="17">
         <v>40716</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="6">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="17">
         <v>34460</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="6">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="17">
         <v>35248</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="6">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="17">
         <v>40101</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="6">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="17">
         <v>36096</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="6">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="17">
         <v>35279</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="6">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="17">
         <v>35489</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" spans="1:6">
-      <c r="A49" s="9">
+    <row r="49" s="7" customFormat="1" spans="1:6">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="20">
         <v>36875</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" spans="1:6">
-      <c r="A50" s="9">
+    <row r="50" s="7" customFormat="1" spans="1:6">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="20">
         <v>35607</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="6">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="17">
         <v>35935</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:6">
-      <c r="A52" s="11">
+    <row r="52" s="6" customFormat="1" spans="1:6">
+      <c r="A52" s="13">
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="19">
         <v>38173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="6">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="17">
         <v>34250</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="6">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="17">
         <v>40850</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1" spans="1:6">
-      <c r="A55" s="11">
+    <row r="55" s="6" customFormat="1" spans="1:6">
+      <c r="A55" s="13">
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="19">
         <v>37078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="6">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="17">
         <v>35677</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="6">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="17">
         <v>43601</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="6">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="17">
         <v>35292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="6">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="17">
         <v>35598</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="6">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="17">
         <v>37834</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="6">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="17">
         <v>40491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="6">
+      <c r="A62" s="10">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="17">
         <v>36896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="6">
+      <c r="A63" s="10">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="17">
         <v>37799</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="6">
+      <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="17">
         <v>36622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="6">
+      <c r="A65" s="10">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="17">
         <v>39297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="6">
+      <c r="A66" s="10">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="17">
         <v>36902</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="6">
+      <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="17">
         <v>42824</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="6">
+      <c r="A68" s="10">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="17">
         <v>43248</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="6">
+      <c r="A69" s="10">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="17">
         <v>41535</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="6">
+      <c r="A70" s="10">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="17">
         <v>35387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="6">
+      <c r="A71" s="10">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="17">
         <v>34404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="6">
+      <c r="A72" s="10">
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="17">
         <v>42478</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="6">
+      <c r="A73" s="10">
         <v>71</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="17">
         <v>42137</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="6">
+      <c r="A74" s="10">
         <v>72</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="17">
         <v>38231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="6">
+      <c r="A75" s="10">
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="17">
         <v>44453</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="6">
+    <row r="76" s="6" customFormat="1" spans="1:6">
+      <c r="A76" s="13">
         <v>74</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="19">
         <v>35696</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="6">
+      <c r="A77" s="10">
         <v>75</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="17">
         <v>39041</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="6">
+      <c r="A78" s="10">
         <v>76</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="17">
         <v>37294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="6">
+      <c r="A79" s="10">
         <v>77</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="17">
         <v>39701</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="6">
+      <c r="A80" s="10">
         <v>78</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="17">
         <v>42524</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="6">
+      <c r="A81" s="10">
         <v>79</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="17">
         <v>40767</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="6">
+    <row r="82" s="6" customFormat="1" spans="1:6">
+      <c r="A82" s="13">
         <v>80</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="19">
         <v>39584</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="6">
+      <c r="A83" s="10">
         <v>81</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="17">
         <v>41689</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" spans="1:6">
-      <c r="A84" s="9">
+    <row r="84" s="7" customFormat="1" spans="1:6">
+      <c r="A84" s="15">
         <v>82</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F84" s="20">
         <v>39517</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" spans="1:6">
-      <c r="A85" s="9">
+    <row r="85" s="7" customFormat="1" spans="1:6">
+      <c r="A85" s="15">
         <v>83</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="10" t="s">
+      <c r="E85" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="20">
         <v>39419</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="6">
+      <c r="A86" s="10">
         <v>84</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="17">
         <v>42527</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" spans="1:6">
-      <c r="A87" s="9">
+    <row r="87" s="7" customFormat="1" spans="1:6">
+      <c r="A87" s="15">
         <v>85</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="E87" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F87" s="20">
         <v>40977</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="6">
+      <c r="A88" s="10">
         <v>86</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="17">
         <v>37705</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="6">
+      <c r="A89" s="10">
         <v>87</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="17">
         <v>42979</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="6">
+      <c r="A90" s="10">
         <v>88</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="17">
         <v>38454</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="6">
+      <c r="A91" s="10">
         <v>89</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="17">
         <v>36362</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" spans="1:6">
-      <c r="A92" s="11">
+    <row r="92" s="6" customFormat="1" spans="1:6">
+      <c r="A92" s="13">
         <v>90</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="19">
         <v>35242</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="6">
+      <c r="A93" s="10">
         <v>91</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="17">
         <v>36552</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" spans="1:6">
-      <c r="A94" s="11">
+    <row r="94" s="6" customFormat="1" spans="1:6">
+      <c r="A94" s="13">
         <v>92</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="19">
         <v>36934</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="6">
+      <c r="A95" s="10">
         <v>93</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F95" s="17">
         <v>36791</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="6">
+      <c r="A96" s="10">
         <v>94</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="17">
         <v>39563</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="6">
+      <c r="A97" s="10">
         <v>95</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="17">
         <v>43668</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="6">
+      <c r="A98" s="10">
         <v>96</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="17">
         <v>41191</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="6">
+      <c r="A99" s="10">
         <v>97</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="17">
         <v>42800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="6">
+      <c r="A100" s="10">
         <v>98</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="17">
         <v>40400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="6">
+      <c r="A101" s="10">
         <v>99</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="17">
         <v>35710</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="6">
+      <c r="A102" s="10">
         <v>100</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F102" s="17">
         <v>35619</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="6">
+      <c r="A103" s="10">
         <v>101</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="13">
+      <c r="F103" s="17">
         <v>37467</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="6">
+      <c r="A104" s="10">
         <v>102</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="17">
         <v>39463</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="6">
+      <c r="A105" s="10">
         <v>103</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="17">
         <v>35216</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="6">
+      <c r="A106" s="10">
         <v>104</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="17">
         <v>35305</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="6">
+      <c r="A107" s="10">
         <v>105</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="17">
         <v>35110</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="6">
+      <c r="A108" s="10">
         <v>106</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F108" s="13">
+      <c r="F108" s="17">
         <v>36909</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="6">
+      <c r="A109" s="10">
         <v>107</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="17">
         <v>44277</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="6">
+      <c r="A110" s="10">
         <v>108</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="17">
         <v>37712</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="6">
+      <c r="A111" s="10">
         <v>109</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111" s="17">
         <v>40722</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="6">
+      <c r="A112" s="10">
         <v>110</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F112" s="17">
         <v>43783</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="6">
+      <c r="A113" s="10">
         <v>111</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="17">
         <v>35591</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="6">
+      <c r="A114" s="10">
         <v>112</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="17">
         <v>41908</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="6">
+      <c r="A115" s="10">
         <v>113</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="17">
         <v>35759</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="6">
+      <c r="A116" s="10">
         <v>114</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F116" s="13">
+      <c r="F116" s="17">
         <v>40472</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="6">
+      <c r="A117" s="10">
         <v>115</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="17">
         <v>42536</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="6">
+      <c r="A118" s="10">
         <v>116</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="17">
         <v>34309</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="6">
+      <c r="A119" s="10">
         <v>117</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="17">
         <v>37042</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="6">
+      <c r="A120" s="10">
         <v>118</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F120" s="13">
+      <c r="F120" s="17">
         <v>39190</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="6">
+      <c r="A121" s="10">
         <v>119</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="17">
         <v>34340</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="6">
+      <c r="A122" s="10">
         <v>120</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F122" s="17">
         <v>34432</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="6">
+      <c r="A123" s="10">
         <v>121</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="17">
         <v>36510</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="6">
+      <c r="A124" s="10">
         <v>122</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F124" s="17">
         <v>43570</v>
       </c>
     </row>
-    <row r="125" s="4" customFormat="1" spans="1:6">
-      <c r="A125" s="17">
+    <row r="125" s="8" customFormat="1" spans="1:6">
+      <c r="A125" s="21">
         <v>123</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F125" s="19">
+      <c r="F125" s="23">
         <v>43543</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="6">
+      <c r="A126" s="10">
         <v>124</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F126" s="13">
+      <c r="F126" s="17">
         <v>40400</v>
       </c>
     </row>
-    <row r="127" s="3" customFormat="1" spans="1:6">
-      <c r="A127" s="11">
+    <row r="127" s="6" customFormat="1" spans="1:6">
+      <c r="A127" s="13">
         <v>125</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="12" t="s">
+      <c r="C127" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="12" t="s">
+      <c r="D127" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E127" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="F127" s="16">
+      <c r="F127" s="19">
         <v>43262</v>
       </c>
     </row>
-    <row r="128" s="3" customFormat="1" spans="1:6">
-      <c r="A128" s="11">
+    <row r="128" s="6" customFormat="1" spans="1:6">
+      <c r="A128" s="13">
         <v>126</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="12" t="s">
+      <c r="E128" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="F128" s="16">
+      <c r="F128" s="19">
         <v>40116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="6">
+      <c r="A129" s="10">
         <v>127</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="13">
+      <c r="F129" s="17">
         <v>35100</v>
       </c>
     </row>
-    <row r="130" s="4" customFormat="1" spans="1:6">
-      <c r="A130" s="17">
+    <row r="130" s="8" customFormat="1" spans="1:6">
+      <c r="A130" s="21">
         <v>128</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F130" s="19">
+      <c r="F130" s="23">
         <v>43322</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="6">
+      <c r="A131" s="10">
         <v>129</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131" s="17">
         <v>40654</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="6">
+      <c r="A132" s="10">
         <v>130</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="13">
+      <c r="F132" s="17">
         <v>35599</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="6">
+      <c r="A133" s="10">
         <v>131</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="13">
+      <c r="F133" s="17">
         <v>40829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="6">
+      <c r="A134" s="10">
         <v>132</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134" s="17">
         <v>42138</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="6">
+      <c r="A135" s="10">
         <v>133</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="13">
+      <c r="F135" s="17">
         <v>40186</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="6">
+      <c r="A136" s="10">
         <v>134</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="13">
+      <c r="F136" s="17">
         <v>40379</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="6">
+      <c r="A137" s="10">
         <v>135</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="17">
         <v>38048</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="6">
+      <c r="A138" s="10">
         <v>136</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="17">
         <v>40849</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="6">
+      <c r="A139" s="10">
         <v>137</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="E139" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="17">
         <v>37609</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="6">
+      <c r="A140" s="10">
         <v>138</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F140" s="17">
         <v>41010</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="6">
+      <c r="A141" s="10">
         <v>139</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="13">
+      <c r="F141" s="17">
         <v>37592</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="6">
+      <c r="A142" s="10">
         <v>140</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142" s="17">
         <v>43488</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="6">
+      <c r="A143" s="10">
         <v>141</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E143" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F143" s="13">
+      <c r="F143" s="17">
         <v>41040</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="6">
+      <c r="A144" s="10">
         <v>142</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144" s="17">
         <v>40716</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="6">
+      <c r="A145" s="10">
         <v>143</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="17">
         <v>41894</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="6">
+      <c r="A146" s="10">
         <v>144</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F146" s="17">
         <v>38016</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="6">
+      <c r="A147" s="10">
         <v>145</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="17">
         <v>40347</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="6">
+      <c r="A148" s="10">
         <v>146</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F148" s="13">
+      <c r="F148" s="17">
         <v>39710</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="6">
+      <c r="A149" s="10">
         <v>147</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F149" s="13">
+      <c r="F149" s="17">
         <v>40983</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="6">
+      <c r="A150" s="10">
         <v>148</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="13">
+      <c r="F150" s="17">
         <v>39246</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="6">
+      <c r="A151" s="10">
         <v>149</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151" s="17">
         <v>44060</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="6">
+      <c r="A152" s="10">
         <v>150</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="17">
         <v>36903</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="6">
+      <c r="A153" s="10">
         <v>151</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="17">
         <v>44046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="6">
+      <c r="A154" s="10">
         <v>152</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="17">
         <v>40220</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="6">
+      <c r="A155" s="10">
         <v>153</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="17">
         <v>40059</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="6">
+      <c r="A156" s="10">
         <v>154</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E156" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156" s="17">
         <v>42859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="6">
+      <c r="A157" s="10">
         <v>155</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157" s="17">
         <v>37568</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="6">
+      <c r="A158" s="10">
         <v>156</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="17">
         <v>35213</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="6">
+      <c r="A159" s="10">
         <v>157</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159" s="17">
         <v>35305</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="6">
+      <c r="A160" s="10">
         <v>158</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160" s="17">
         <v>43634</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="6">
+      <c r="A161" s="10">
         <v>159</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="17">
         <v>42947</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="6">
+      <c r="A162" s="10">
         <v>160</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="17">
         <v>42081</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="6">
+      <c r="A163" s="10">
         <v>161</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="17">
         <v>42761</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="6">
+      <c r="A164" s="10">
         <v>162</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="13">
+      <c r="F164" s="17">
         <v>42741</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="6">
+      <c r="A165" s="10">
         <v>163</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="17">
         <v>40618</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="6">
+      <c r="A166" s="10">
         <v>164</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="13">
+      <c r="F166" s="17">
         <v>35517</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="6">
+      <c r="A167" s="10">
         <v>165</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167" s="17">
         <v>39652</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="6">
+      <c r="A168" s="10">
         <v>166</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F168" s="17">
         <v>43671</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="6">
+      <c r="A169" s="10">
         <v>167</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F169" s="13">
+      <c r="F169" s="17">
         <v>34432</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="6">
+      <c r="A170" s="10">
         <v>168</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F170" s="13">
+      <c r="F170" s="17">
         <v>38952</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="6">
+      <c r="A171" s="10">
         <v>169</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F171" s="13">
+      <c r="F171" s="17">
         <v>42774</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="6">
+      <c r="A172" s="10">
         <v>170</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F172" s="13">
+      <c r="F172" s="17">
         <v>42348</v>
       </c>
     </row>
-    <row r="173" s="3" customFormat="1" spans="1:6">
-      <c r="A173" s="11">
+    <row r="173" s="6" customFormat="1" spans="1:6">
+      <c r="A173" s="13">
         <v>171</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="D173" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="E173" s="12" t="s">
+      <c r="E173" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="F173" s="16">
+      <c r="F173" s="19">
         <v>39588</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="6">
+      <c r="A174" s="10">
         <v>172</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F174" s="13">
+      <c r="F174" s="17">
         <v>39671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="6">
+      <c r="A175" s="10">
         <v>173</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F175" s="13">
+      <c r="F175" s="17">
         <v>42755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="6">
+      <c r="A176" s="10">
         <v>174</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F176" s="13">
+      <c r="F176" s="17">
         <v>37971</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="6">
+      <c r="A177" s="10">
         <v>175</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F177" s="13">
+      <c r="F177" s="17">
         <v>40323</v>
       </c>
     </row>
-    <row r="178" s="3" customFormat="1" spans="1:6">
-      <c r="A178" s="11">
+    <row r="178" s="6" customFormat="1" spans="1:6">
+      <c r="A178" s="13">
         <v>176</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="D178" s="12" t="s">
+      <c r="D178" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="E178" s="12" t="s">
+      <c r="E178" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="F178" s="16">
+      <c r="F178" s="19">
         <v>40326</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="6">
+      <c r="A179" s="10">
         <v>177</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="13">
+      <c r="F179" s="17">
         <v>44193</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="6">
+      <c r="A180" s="10">
         <v>178</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F180" s="13">
+      <c r="F180" s="17">
         <v>41193</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="6">
+      <c r="A181" s="10">
         <v>179</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F181" s="13">
+      <c r="F181" s="17">
         <v>39037</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="6">
+      <c r="A182" s="10">
         <v>180</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="13">
+      <c r="F182" s="17">
         <v>36850</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="6">
+      <c r="A183" s="10">
         <v>181</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C183" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="F183" s="13">
+      <c r="F183" s="17">
         <v>41009</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="6">
+      <c r="A184" s="10">
         <v>182</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C184" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="13">
+      <c r="F184" s="17">
         <v>37538</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="6">
+      <c r="A185" s="10">
         <v>183</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F185" s="13">
+      <c r="F185" s="17">
         <v>36872</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="6">
+      <c r="A186" s="10">
         <v>184</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="13">
+      <c r="F186" s="17">
         <v>35587</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="6">
+      <c r="A187" s="10">
         <v>185</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="5" t="s">
+      <c r="C187" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="F187" s="13">
+      <c r="F187" s="17">
         <v>37498</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="6">
+      <c r="A188" s="10">
         <v>186</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F188" s="13">
+      <c r="F188" s="17">
         <v>42584</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="6">
+      <c r="A189" s="10">
         <v>187</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F189" s="13">
+      <c r="F189" s="17">
         <v>33331</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="6">
+      <c r="A190" s="10">
         <v>188</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C190" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F190" s="13">
+      <c r="F190" s="17">
         <v>39118</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="6">
+      <c r="A191" s="10">
         <v>189</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C191" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="13">
+      <c r="F191" s="17">
         <v>43767</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="6">
+      <c r="A192" s="10">
         <v>190</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C192" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F192" s="13">
+      <c r="F192" s="17">
         <v>35381</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="6">
+      <c r="A193" s="10">
         <v>191</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F193" s="13">
+      <c r="F193" s="17">
         <v>35592</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="6">
+      <c r="A194" s="10">
         <v>192</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F194" s="13">
+      <c r="F194" s="17">
         <v>35642</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="6">
+      <c r="A195" s="10">
         <v>193</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="13">
+      <c r="F195" s="17">
         <v>42030</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="6">
+      <c r="A196" s="10">
         <v>194</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="13">
+      <c r="F196" s="17">
         <v>42153</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="6">
+      <c r="A197" s="10">
         <v>195</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C197" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F197" s="13">
+      <c r="F197" s="17">
         <v>42710</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="6">
+      <c r="A198" s="10">
         <v>196</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F198" s="13">
+      <c r="F198" s="17">
         <v>39142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="6">
+      <c r="A199" s="10">
         <v>197</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F199" s="13">
+      <c r="F199" s="17">
         <v>39441</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="6">
+      <c r="A200" s="10">
         <v>198</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="13">
+      <c r="F200" s="17">
         <v>42002</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="6">
+      <c r="A201" s="10">
         <v>199</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F201" s="13">
+      <c r="F201" s="17">
         <v>42501</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="6">
+      <c r="A202" s="10">
         <v>200</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F202" s="13">
+      <c r="F202" s="17">
         <v>40256</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="6">
+      <c r="A203" s="10">
         <v>201</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F203" s="13">
+      <c r="F203" s="17">
         <v>37627</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="6">
+      <c r="A204" s="10">
         <v>202</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F204" s="13">
+      <c r="F204" s="17">
         <v>40505</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="6">
+      <c r="A205" s="10">
         <v>203</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F205" s="13">
+      <c r="F205" s="17">
         <v>34340</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="6">
+      <c r="A206" s="10">
         <v>204</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="13">
+      <c r="F206" s="17">
         <v>37130</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="6">
+      <c r="A207" s="10">
         <v>205</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C207" s="5" t="s">
+      <c r="C207" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E207" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F207" s="13">
+      <c r="F207" s="17">
         <v>35733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="6">
+      <c r="A208" s="10">
         <v>206</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F208" s="13">
+      <c r="F208" s="17">
         <v>40408</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="6">
+      <c r="A209" s="10">
         <v>207</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C209" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="13">
+      <c r="F209" s="17">
         <v>35627</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="6">
+      <c r="A210" s="10">
         <v>208</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E210" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="13">
+      <c r="F210" s="17">
         <v>41816</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="6">
+      <c r="A211" s="10">
         <v>209</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F211" s="13">
+      <c r="F211" s="17">
         <v>40844</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="6">
+      <c r="A212" s="10">
         <v>210</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E212" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="13">
+      <c r="F212" s="17">
         <v>35912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="6">
+      <c r="A213" s="10">
         <v>211</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E213" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F213" s="13">
+      <c r="F213" s="17">
         <v>36419</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="6">
+      <c r="A214" s="10">
         <v>212</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="13">
+      <c r="F214" s="17">
         <v>37496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -3113,8 +3113,8 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -5044,23 +5044,23 @@
         <v>39563</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="10">
+    <row r="97" s="8" customFormat="1" spans="1:6">
+      <c r="A97" s="21">
         <v>95</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="23">
         <v>43668</v>
       </c>
     </row>
@@ -5124,23 +5124,23 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="10">
+    <row r="101" s="8" customFormat="1" spans="1:6">
+      <c r="A101" s="21">
         <v>99</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="23">
         <v>35710</v>
       </c>
     </row>
@@ -5164,23 +5164,23 @@
         <v>35619</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="10">
+    <row r="103" s="7" customFormat="1" spans="1:6">
+      <c r="A103" s="15">
         <v>101</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="20">
         <v>37467</v>
       </c>
     </row>
@@ -5224,23 +5224,23 @@
         <v>35216</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="10">
+    <row r="106" s="7" customFormat="1" spans="1:6">
+      <c r="A106" s="15">
         <v>104</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="20">
         <v>35305</v>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -7470,7 +7470,7 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C5" s="1">
@@ -7503,7 +7503,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C8" s="1">

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26920" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
@@ -2047,29 +2047,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2093,6 +2078,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2104,21 +2104,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2138,17 +2123,32 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2161,16 +2161,45 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2185,54 +2214,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2269,7 +2254,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2281,13 +2320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2299,7 +2338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2311,13 +2350,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2329,55 +2422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2389,67 +2434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,22 +2476,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2526,26 +2505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,187 +2545,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3113,4294 +3104,4294 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.69230769230769" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.5384615384615" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.69230769230769" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="20">
         <v>38930</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:6">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="21">
         <v>35639</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:6">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="21">
         <v>35543</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="20">
         <v>36738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="20">
         <v>38203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="20">
         <v>40059</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:6">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="22">
         <v>40604</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:6">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="22">
         <v>40844</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="20">
         <v>40758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="20">
         <v>41040</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="20">
         <v>42545</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="20">
         <v>42165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="20">
         <v>38049</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="20">
         <v>40763</v>
       </c>
     </row>
     <row r="16" s="7" customFormat="1" spans="1:6">
-      <c r="A16" s="15">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="23">
         <v>35948</v>
       </c>
     </row>
     <row r="17" s="7" customFormat="1" spans="1:6">
-      <c r="A17" s="15">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="23">
         <v>37923</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="20">
         <v>40604</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="20">
         <v>41667</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="1:6">
-      <c r="A20" s="15">
+    <row r="20" s="8" customFormat="1" spans="1:6">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="24">
         <v>42870</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="20">
         <v>40500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="20">
         <v>42773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="20">
         <v>40116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="20">
         <v>34093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="20">
         <v>37788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="20">
         <v>36817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="20">
         <v>36732</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="20">
         <v>40449</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="20">
         <v>38124</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="20">
         <v>35569</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="20">
         <v>40743</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="20">
         <v>42822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="20">
         <v>35417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="20">
         <v>39622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="20">
         <v>38490</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="20">
         <v>44189</v>
       </c>
     </row>
     <row r="37" s="6" customFormat="1" spans="1:6">
-      <c r="A37" s="13">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="22">
         <v>43389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="20">
         <v>41054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="20">
         <v>35368</v>
       </c>
     </row>
     <row r="40" s="6" customFormat="1" spans="1:6">
-      <c r="A40" s="13">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="22">
         <v>43228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="10">
+      <c r="A41" s="11">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="20">
         <v>36353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="20">
         <v>40716</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="10">
+      <c r="A43" s="11">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="20">
         <v>34460</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="10">
+      <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="20">
         <v>35248</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="10">
+      <c r="A45" s="11">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="20">
         <v>40101</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="10">
+      <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="20">
         <v>36096</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="10">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="20">
         <v>35279</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="20">
         <v>35489</v>
       </c>
     </row>
     <row r="49" s="7" customFormat="1" spans="1:6">
-      <c r="A49" s="15">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="23">
         <v>36875</v>
       </c>
     </row>
     <row r="50" s="7" customFormat="1" spans="1:6">
-      <c r="A50" s="15">
+      <c r="A50" s="16">
         <v>48</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="23">
         <v>35607</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="20">
         <v>35935</v>
       </c>
     </row>
     <row r="52" s="6" customFormat="1" spans="1:6">
-      <c r="A52" s="13">
+      <c r="A52" s="14">
         <v>50</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="22">
         <v>38173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="10">
+      <c r="A53" s="11">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="20">
         <v>34250</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="10">
+      <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="20">
         <v>40850</v>
       </c>
     </row>
     <row r="55" s="6" customFormat="1" spans="1:6">
-      <c r="A55" s="13">
+      <c r="A55" s="14">
         <v>53</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="22">
         <v>37078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10">
+      <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="20">
         <v>35677</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="10">
+      <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="20">
         <v>43601</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="10">
+      <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="20">
         <v>35292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="10">
+      <c r="A59" s="11">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="20">
         <v>35598</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="10">
+      <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="20">
         <v>37834</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="10">
+      <c r="A61" s="11">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="20">
         <v>40491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="10">
+      <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="20">
         <v>36896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="10">
+      <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="20">
         <v>37799</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="10">
+      <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="20">
         <v>36622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="10">
+      <c r="A65" s="11">
         <v>63</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="20">
         <v>39297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="10">
+      <c r="A66" s="11">
         <v>64</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="20">
         <v>36902</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="10">
+      <c r="A67" s="11">
         <v>65</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="20">
         <v>42824</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="10">
+      <c r="A68" s="11">
         <v>66</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="20">
         <v>43248</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="10">
+      <c r="A69" s="11">
         <v>67</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="20">
         <v>41535</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="10">
+      <c r="A70" s="11">
         <v>68</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="20">
         <v>35387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="10">
+      <c r="A71" s="11">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="20">
         <v>34404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="10">
+      <c r="A72" s="11">
         <v>70</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="20">
         <v>42478</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="10">
+      <c r="A73" s="11">
         <v>71</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="20">
         <v>42137</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="10">
+      <c r="A74" s="11">
         <v>72</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="20">
         <v>38231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="10">
+      <c r="A75" s="11">
         <v>73</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="20">
         <v>44453</v>
       </c>
     </row>
     <row r="76" s="6" customFormat="1" spans="1:6">
-      <c r="A76" s="13">
+      <c r="A76" s="14">
         <v>74</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F76" s="22">
         <v>35696</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="10">
+      <c r="A77" s="11">
         <v>75</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="20">
         <v>39041</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="10">
+      <c r="A78" s="11">
         <v>76</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="20">
         <v>37294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="10">
+      <c r="A79" s="11">
         <v>77</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="20">
         <v>39701</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="10">
+      <c r="A80" s="11">
         <v>78</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="20">
         <v>42524</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="10">
+      <c r="A81" s="11">
         <v>79</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="20">
         <v>40767</v>
       </c>
     </row>
     <row r="82" s="6" customFormat="1" spans="1:6">
-      <c r="A82" s="13">
+      <c r="A82" s="14">
         <v>80</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="22">
         <v>39584</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="10">
+      <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="20">
         <v>41689</v>
       </c>
     </row>
     <row r="84" s="7" customFormat="1" spans="1:6">
-      <c r="A84" s="15">
+      <c r="A84" s="16">
         <v>82</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="23">
         <v>39517</v>
       </c>
     </row>
     <row r="85" s="7" customFormat="1" spans="1:6">
-      <c r="A85" s="15">
+      <c r="A85" s="16">
         <v>83</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="23">
         <v>39419</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="10">
+      <c r="A86" s="11">
         <v>84</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="20">
         <v>42527</v>
       </c>
     </row>
     <row r="87" s="7" customFormat="1" spans="1:6">
-      <c r="A87" s="15">
+      <c r="A87" s="16">
         <v>85</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="23">
         <v>40977</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="10">
+      <c r="A88" s="11">
         <v>86</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="20">
         <v>37705</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="10">
+      <c r="A89" s="11">
         <v>87</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="20">
         <v>42979</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="10">
+      <c r="A90" s="11">
         <v>88</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="20">
         <v>38454</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="10">
+      <c r="A91" s="11">
         <v>89</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="20">
         <v>36362</v>
       </c>
     </row>
     <row r="92" s="6" customFormat="1" spans="1:6">
-      <c r="A92" s="13">
+      <c r="A92" s="14">
         <v>90</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="22">
         <v>35242</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="10">
+      <c r="A93" s="11">
         <v>91</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="20">
         <v>36552</v>
       </c>
     </row>
     <row r="94" s="6" customFormat="1" spans="1:6">
-      <c r="A94" s="13">
+      <c r="A94" s="14">
         <v>92</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="22">
         <v>36934</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="10">
+      <c r="A95" s="11">
         <v>93</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="20">
         <v>36791</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="10">
+      <c r="A96" s="11">
         <v>94</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="20">
         <v>39563</v>
       </c>
     </row>
-    <row r="97" s="8" customFormat="1" spans="1:6">
-      <c r="A97" s="21">
+    <row r="97" s="9" customFormat="1" spans="1:6">
+      <c r="A97" s="25">
         <v>95</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F97" s="23">
+      <c r="F97" s="27">
         <v>43668</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="10">
+      <c r="A98" s="11">
         <v>96</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="20">
         <v>41191</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="10">
+      <c r="A99" s="11">
         <v>97</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="20">
         <v>42800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="10">
+      <c r="A100" s="11">
         <v>98</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="20">
         <v>40400</v>
       </c>
     </row>
-    <row r="101" s="8" customFormat="1" spans="1:6">
-      <c r="A101" s="21">
+    <row r="101" s="9" customFormat="1" spans="1:6">
+      <c r="A101" s="25">
         <v>99</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="22" t="s">
+      <c r="D101" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="22" t="s">
+      <c r="E101" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="23">
+      <c r="F101" s="27">
         <v>35710</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="10">
+      <c r="A102" s="11">
         <v>100</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="20">
         <v>35619</v>
       </c>
     </row>
     <row r="103" s="7" customFormat="1" spans="1:6">
-      <c r="A103" s="15">
+      <c r="A103" s="16">
         <v>101</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="16" t="s">
+      <c r="D103" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F103" s="23">
         <v>37467</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="10">
+      <c r="A104" s="11">
         <v>102</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="20">
         <v>39463</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="10">
+      <c r="A105" s="11">
         <v>103</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="20">
         <v>35216</v>
       </c>
     </row>
     <row r="106" s="7" customFormat="1" spans="1:6">
-      <c r="A106" s="15">
+      <c r="A106" s="16">
         <v>104</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="20">
+      <c r="F106" s="23">
         <v>35305</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="10">
+      <c r="A107" s="11">
         <v>105</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="20">
         <v>35110</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="10">
+      <c r="A108" s="11">
         <v>106</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="20">
         <v>36909</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="10">
+      <c r="A109" s="11">
         <v>107</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="20">
         <v>44277</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="10">
+      <c r="A110" s="11">
         <v>108</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="20">
         <v>37712</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="10">
+      <c r="A111" s="11">
         <v>109</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="20">
         <v>40722</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="10">
+      <c r="A112" s="11">
         <v>110</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="20">
         <v>43783</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="10">
+      <c r="A113" s="11">
         <v>111</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="20">
         <v>35591</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="10">
+      <c r="A114" s="11">
         <v>112</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="20">
         <v>41908</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="10">
+      <c r="A115" s="11">
         <v>113</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="20">
         <v>35759</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="10">
+      <c r="A116" s="11">
         <v>114</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="20">
         <v>40472</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="10">
+      <c r="A117" s="11">
         <v>115</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117" s="20">
         <v>42536</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="10">
+      <c r="A118" s="11">
         <v>116</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="20">
         <v>34309</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="10">
+      <c r="A119" s="11">
         <v>117</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F119" s="20">
         <v>37042</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="10">
+      <c r="A120" s="11">
         <v>118</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="20">
         <v>39190</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="10">
+      <c r="A121" s="11">
         <v>119</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F121" s="20">
         <v>34340</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="10">
+      <c r="A122" s="11">
         <v>120</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="20">
         <v>34432</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="10">
+      <c r="A123" s="11">
         <v>121</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="20">
         <v>36510</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="10">
+      <c r="A124" s="11">
         <v>122</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="20">
         <v>43570</v>
       </c>
     </row>
-    <row r="125" s="8" customFormat="1" spans="1:6">
-      <c r="A125" s="21">
+    <row r="125" s="9" customFormat="1" spans="1:6">
+      <c r="A125" s="25">
         <v>123</v>
       </c>
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="22" t="s">
+      <c r="C125" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="27">
         <v>43543</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="10">
+      <c r="A126" s="11">
         <v>124</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="20">
         <v>40400</v>
       </c>
     </row>
     <row r="127" s="6" customFormat="1" spans="1:6">
-      <c r="A127" s="13">
+      <c r="A127" s="14">
         <v>125</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="E127" s="14" t="s">
+      <c r="E127" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="F127" s="19">
+      <c r="F127" s="22">
         <v>43262</v>
       </c>
     </row>
     <row r="128" s="6" customFormat="1" spans="1:6">
-      <c r="A128" s="13">
+      <c r="A128" s="14">
         <v>126</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="14" t="s">
+      <c r="E128" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="F128" s="19">
+      <c r="F128" s="22">
         <v>40116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="10">
+      <c r="A129" s="11">
         <v>127</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="17">
+      <c r="F129" s="20">
         <v>35100</v>
       </c>
     </row>
-    <row r="130" s="8" customFormat="1" spans="1:6">
-      <c r="A130" s="21">
+    <row r="130" s="9" customFormat="1" spans="1:6">
+      <c r="A130" s="25">
         <v>128</v>
       </c>
-      <c r="B130" s="22" t="s">
+      <c r="B130" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="F130" s="23">
+      <c r="F130" s="27">
         <v>43322</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="10">
+      <c r="A131" s="11">
         <v>129</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F131" s="17">
+      <c r="F131" s="20">
         <v>40654</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="10">
+      <c r="A132" s="11">
         <v>130</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F132" s="20">
         <v>35599</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="10">
+      <c r="A133" s="11">
         <v>131</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="17">
+      <c r="F133" s="20">
         <v>40829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="10">
+      <c r="A134" s="11">
         <v>132</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F134" s="17">
+      <c r="F134" s="20">
         <v>42138</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="10">
+      <c r="A135" s="11">
         <v>133</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="9" t="s">
+      <c r="C135" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="17">
+      <c r="F135" s="20">
         <v>40186</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="10">
+      <c r="A136" s="11">
         <v>134</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="20">
         <v>40379</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="10">
+      <c r="A137" s="11">
         <v>135</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F137" s="20">
         <v>38048</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="10">
+      <c r="A138" s="11">
         <v>136</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F138" s="17">
+      <c r="F138" s="20">
         <v>40849</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="10">
+      <c r="A139" s="11">
         <v>137</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F139" s="17">
+      <c r="F139" s="20">
         <v>37609</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="10">
+      <c r="A140" s="11">
         <v>138</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="17">
+      <c r="F140" s="20">
         <v>41010</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="10">
+      <c r="A141" s="11">
         <v>139</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="20">
         <v>37592</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="10">
+      <c r="A142" s="11">
         <v>140</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C142" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142" s="20">
         <v>43488</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="10">
+      <c r="A143" s="11">
         <v>141</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C143" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="20">
         <v>41040</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="10">
+      <c r="A144" s="11">
         <v>142</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="9" t="s">
+      <c r="E144" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F144" s="17">
+      <c r="F144" s="20">
         <v>40716</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="10">
+      <c r="A145" s="11">
         <v>143</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="20">
         <v>41894</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="10">
+      <c r="A146" s="11">
         <v>144</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="20">
         <v>38016</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="10">
+      <c r="A147" s="11">
         <v>145</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C147" s="9" t="s">
+      <c r="C147" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F147" s="17">
+      <c r="F147" s="20">
         <v>40347</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="10">
+      <c r="A148" s="11">
         <v>146</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="9" t="s">
+      <c r="C148" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148" s="20">
         <v>39710</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="10">
+      <c r="A149" s="11">
         <v>147</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F149" s="17">
+      <c r="F149" s="20">
         <v>40983</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="10">
+      <c r="A150" s="11">
         <v>148</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="E150" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="17">
+      <c r="F150" s="20">
         <v>39246</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="10">
+      <c r="A151" s="11">
         <v>149</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="E151" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="17">
+      <c r="F151" s="20">
         <v>44060</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="10">
+      <c r="A152" s="11">
         <v>150</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="E152" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F152" s="20">
         <v>36903</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="10">
+      <c r="A153" s="11">
         <v>151</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="E153" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="17">
+      <c r="F153" s="20">
         <v>44046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="10">
+      <c r="A154" s="11">
         <v>152</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F154" s="17">
+      <c r="F154" s="20">
         <v>40220</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="10">
+      <c r="A155" s="11">
         <v>153</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="E155" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F155" s="17">
+      <c r="F155" s="20">
         <v>40059</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="10">
+      <c r="A156" s="11">
         <v>154</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E156" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F156" s="17">
+      <c r="F156" s="20">
         <v>42859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="10">
+      <c r="A157" s="11">
         <v>155</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F157" s="17">
+      <c r="F157" s="20">
         <v>37568</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="10">
+      <c r="A158" s="11">
         <v>156</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="17">
+      <c r="F158" s="20">
         <v>35213</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="10">
+      <c r="A159" s="11">
         <v>157</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="E159" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="17">
+      <c r="F159" s="20">
         <v>35305</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="10">
+      <c r="A160" s="11">
         <v>158</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C160" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="E160" s="9" t="s">
+      <c r="E160" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="17">
+      <c r="F160" s="20">
         <v>43634</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="10">
+      <c r="A161" s="11">
         <v>159</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E161" s="9" t="s">
+      <c r="E161" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F161" s="17">
+      <c r="F161" s="20">
         <v>42947</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="10">
+      <c r="A162" s="11">
         <v>160</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C162" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="E162" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F162" s="17">
+      <c r="F162" s="20">
         <v>42081</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="10">
+      <c r="A163" s="11">
         <v>161</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E163" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F163" s="17">
+      <c r="F163" s="20">
         <v>42761</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="10">
+      <c r="A164" s="11">
         <v>162</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="E164" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="17">
+      <c r="F164" s="20">
         <v>42741</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="10">
+      <c r="A165" s="11">
         <v>163</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="E165" s="9" t="s">
+      <c r="E165" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="17">
+      <c r="F165" s="20">
         <v>40618</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="10">
+      <c r="A166" s="11">
         <v>164</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C166" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="E166" s="9" t="s">
+      <c r="E166" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F166" s="20">
         <v>35517</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="10">
+      <c r="A167" s="11">
         <v>165</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C167" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="E167" s="9" t="s">
+      <c r="E167" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="F167" s="17">
+      <c r="F167" s="20">
         <v>39652</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="10">
+      <c r="A168" s="11">
         <v>166</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="9" t="s">
+      <c r="C168" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="9" t="s">
+      <c r="E168" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="F168" s="17">
+      <c r="F168" s="20">
         <v>43671</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="10">
+      <c r="A169" s="11">
         <v>167</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F169" s="17">
+      <c r="F169" s="20">
         <v>34432</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="10">
+      <c r="A170" s="11">
         <v>168</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E170" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F170" s="17">
+      <c r="F170" s="20">
         <v>38952</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="10">
+      <c r="A171" s="11">
         <v>169</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="E171" s="9" t="s">
+      <c r="E171" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F171" s="17">
+      <c r="F171" s="20">
         <v>42774</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="10">
+      <c r="A172" s="11">
         <v>170</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F172" s="17">
+      <c r="F172" s="20">
         <v>42348</v>
       </c>
     </row>
     <row r="173" s="6" customFormat="1" spans="1:6">
-      <c r="A173" s="13">
+      <c r="A173" s="14">
         <v>171</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="E173" s="14" t="s">
+      <c r="E173" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="F173" s="19">
+      <c r="F173" s="22">
         <v>39588</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="10">
+      <c r="A174" s="11">
         <v>172</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="E174" s="9" t="s">
+      <c r="E174" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F174" s="17">
+      <c r="F174" s="20">
         <v>39671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="10">
+      <c r="A175" s="11">
         <v>173</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F175" s="17">
+      <c r="F175" s="20">
         <v>42755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="10">
+      <c r="A176" s="11">
         <v>174</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C176" s="9" t="s">
+      <c r="C176" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E176" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F176" s="17">
+      <c r="F176" s="20">
         <v>37971</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="10">
+      <c r="A177" s="11">
         <v>175</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="E177" s="9" t="s">
+      <c r="E177" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F177" s="17">
+      <c r="F177" s="20">
         <v>40323</v>
       </c>
     </row>
     <row r="178" s="6" customFormat="1" spans="1:6">
-      <c r="A178" s="13">
+      <c r="A178" s="14">
         <v>176</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C178" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="E178" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="F178" s="19">
+      <c r="F178" s="22">
         <v>40326</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="10">
+      <c r="A179" s="11">
         <v>177</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="E179" s="9" t="s">
+      <c r="E179" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="17">
+      <c r="F179" s="20">
         <v>44193</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="10">
+      <c r="A180" s="11">
         <v>178</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="9" t="s">
+      <c r="C180" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="E180" s="9" t="s">
+      <c r="E180" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F180" s="17">
+      <c r="F180" s="20">
         <v>41193</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="10">
+      <c r="A181" s="11">
         <v>179</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="9" t="s">
+      <c r="E181" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F181" s="17">
+      <c r="F181" s="20">
         <v>39037</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="10">
+      <c r="A182" s="11">
         <v>180</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="E182" s="9" t="s">
+      <c r="E182" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="17">
+      <c r="F182" s="20">
         <v>36850</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="10">
+      <c r="A183" s="11">
         <v>181</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="E183" s="9" t="s">
+      <c r="E183" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F183" s="17">
+      <c r="F183" s="20">
         <v>41009</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="10">
+      <c r="A184" s="11">
         <v>182</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="E184" s="9" t="s">
+      <c r="E184" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="17">
+      <c r="F184" s="20">
         <v>37538</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="10">
+      <c r="A185" s="11">
         <v>183</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="F185" s="17">
+      <c r="F185" s="20">
         <v>36872</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="10">
+      <c r="A186" s="11">
         <v>184</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="E186" s="9" t="s">
+      <c r="E186" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="17">
+      <c r="F186" s="20">
         <v>35587</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="10">
+      <c r="A187" s="11">
         <v>185</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="9" t="s">
+      <c r="C187" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="E187" s="9" t="s">
+      <c r="E187" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="F187" s="17">
+      <c r="F187" s="20">
         <v>37498</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="10">
+      <c r="A188" s="11">
         <v>186</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="E188" s="9" t="s">
+      <c r="E188" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="F188" s="17">
+      <c r="F188" s="20">
         <v>42584</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="10">
+      <c r="A189" s="11">
         <v>187</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="C189" s="9" t="s">
+      <c r="C189" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="E189" s="9" t="s">
+      <c r="E189" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="F189" s="17">
+      <c r="F189" s="20">
         <v>33331</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="10">
+      <c r="A190" s="11">
         <v>188</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="F190" s="17">
+      <c r="F190" s="20">
         <v>39118</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="10">
+      <c r="A191" s="11">
         <v>189</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="E191" s="9" t="s">
+      <c r="E191" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="17">
+      <c r="F191" s="20">
         <v>43767</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="10">
+      <c r="A192" s="11">
         <v>190</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B192" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="E192" s="9" t="s">
+      <c r="E192" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F192" s="17">
+      <c r="F192" s="20">
         <v>35381</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="10">
+      <c r="A193" s="11">
         <v>191</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B193" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="C193" s="9" t="s">
+      <c r="C193" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="E193" s="9" t="s">
+      <c r="E193" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="20">
         <v>35592</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="10">
+      <c r="A194" s="11">
         <v>192</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B194" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="C194" s="9" t="s">
+      <c r="C194" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F194" s="17">
+      <c r="F194" s="20">
         <v>35642</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="10">
+      <c r="A195" s="11">
         <v>193</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="E195" s="9" t="s">
+      <c r="E195" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="17">
+      <c r="F195" s="20">
         <v>42030</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="10">
+      <c r="A196" s="11">
         <v>194</v>
       </c>
-      <c r="B196" s="9" t="s">
+      <c r="B196" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="E196" s="9" t="s">
+      <c r="E196" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="17">
+      <c r="F196" s="20">
         <v>42153</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="10">
+      <c r="A197" s="11">
         <v>195</v>
       </c>
-      <c r="B197" s="9" t="s">
+      <c r="B197" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="E197" s="9" t="s">
+      <c r="E197" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F197" s="17">
+      <c r="F197" s="20">
         <v>42710</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="10">
+      <c r="A198" s="11">
         <v>196</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="E198" s="9" t="s">
+      <c r="E198" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F198" s="17">
+      <c r="F198" s="20">
         <v>39142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="10">
+      <c r="A199" s="11">
         <v>197</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B199" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C199" s="9" t="s">
+      <c r="C199" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F199" s="17">
+      <c r="F199" s="20">
         <v>39441</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="10">
+      <c r="A200" s="11">
         <v>198</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="C200" s="9" t="s">
+      <c r="C200" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="E200" s="9" t="s">
+      <c r="E200" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="17">
+      <c r="F200" s="20">
         <v>42002</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="10">
+      <c r="A201" s="11">
         <v>199</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="C201" s="9" t="s">
+      <c r="C201" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F201" s="17">
+      <c r="F201" s="20">
         <v>42501</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="10">
+      <c r="A202" s="11">
         <v>200</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="C202" s="9" t="s">
+      <c r="C202" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F202" s="17">
+      <c r="F202" s="20">
         <v>40256</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="10">
+      <c r="A203" s="11">
         <v>201</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="9" t="s">
+      <c r="C203" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="E203" s="9" t="s">
+      <c r="E203" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="F203" s="17">
+      <c r="F203" s="20">
         <v>37627</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="10">
+      <c r="A204" s="11">
         <v>202</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="9" t="s">
+      <c r="C204" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="E204" s="9" t="s">
+      <c r="E204" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F204" s="17">
+      <c r="F204" s="20">
         <v>40505</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="10">
+      <c r="A205" s="11">
         <v>203</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="9" t="s">
+      <c r="C205" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F205" s="17">
+      <c r="F205" s="20">
         <v>34340</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="10">
+      <c r="A206" s="11">
         <v>204</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D206" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="E206" s="9" t="s">
+      <c r="E206" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="17">
+      <c r="F206" s="20">
         <v>37130</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="10">
+      <c r="A207" s="11">
         <v>205</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B207" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="C207" s="9" t="s">
+      <c r="C207" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F207" s="17">
+      <c r="F207" s="20">
         <v>35733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="10">
+      <c r="A208" s="11">
         <v>206</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="E208" s="9" t="s">
+      <c r="E208" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F208" s="17">
+      <c r="F208" s="20">
         <v>40408</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="10">
+      <c r="A209" s="11">
         <v>207</v>
       </c>
-      <c r="B209" s="9" t="s">
+      <c r="B209" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="C209" s="9" t="s">
+      <c r="C209" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D209" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="E209" s="9" t="s">
+      <c r="E209" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="17">
+      <c r="F209" s="20">
         <v>35627</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="10">
+      <c r="A210" s="11">
         <v>208</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C210" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D210" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="E210" s="9" t="s">
+      <c r="E210" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="17">
+      <c r="F210" s="20">
         <v>41816</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="10">
+      <c r="A211" s="11">
         <v>209</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C211" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="E211" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F211" s="17">
+      <c r="F211" s="20">
         <v>40844</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="10">
+      <c r="A212" s="11">
         <v>210</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="E212" s="9" t="s">
+      <c r="E212" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="17">
+      <c r="F212" s="20">
         <v>35912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="10">
+      <c r="A213" s="11">
         <v>211</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="E213" s="9" t="s">
+      <c r="E213" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F213" s="17">
+      <c r="F213" s="20">
         <v>36419</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="10">
+      <c r="A214" s="11">
         <v>212</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D214" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="E214" s="9" t="s">
+      <c r="E214" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="17">
+      <c r="F214" s="20">
         <v>37496</v>
       </c>
     </row>
@@ -7415,7 +7406,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26920" windowHeight="13420"/>
+    <workbookView windowHeight="17020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
@@ -2048,8 +2048,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2084,6 +2084,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2092,10 +2099,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2146,15 +2154,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2168,38 +2190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2214,10 +2206,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2260,43 +2260,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,7 +2284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,7 +2302,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2338,7 +2350,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,31 +2398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2386,13 +2410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2404,37 +2434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2505,21 +2505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2546,6 +2531,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2563,142 +2563,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2716,6 +2716,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2737,9 +2738,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3104,91 +3102,91 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.69230769230769" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.5384615384615" style="10" customWidth="1"/>
+    <col min="1" max="1" width="4.69230769230769" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" style="11" customWidth="1"/>
+    <col min="4" max="4" width="18" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="11" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="20">
         <v>38930</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:6">
-      <c r="A3" s="12">
+    <row r="3" s="6" customFormat="1" spans="1:6">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="21">
         <v>35639</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:6">
-      <c r="A4" s="12">
+    <row r="4" s="6" customFormat="1" spans="1:6">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="21">
@@ -3196,19 +3194,19 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="20">
@@ -3216,19 +3214,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="20">
@@ -3236,59 +3234,59 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="20">
         <v>40059</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:6">
-      <c r="A8" s="14">
+    <row r="8" s="7" customFormat="1" spans="1:6">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="22">
         <v>40604</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:6">
-      <c r="A9" s="14">
+    <row r="9" s="7" customFormat="1" spans="1:6">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="22">
@@ -3296,19 +3294,19 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="20">
@@ -3316,19 +3314,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="20">
@@ -3336,19 +3334,19 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="20">
@@ -3356,19 +3354,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="20">
@@ -3376,19 +3374,19 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="20">
@@ -3396,59 +3394,59 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="20">
         <v>40763</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="1:6">
-      <c r="A16" s="16">
+    <row r="16" s="8" customFormat="1" spans="1:6">
+      <c r="A16" s="17">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="23">
         <v>35948</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:6">
-      <c r="A17" s="16">
+    <row r="17" s="8" customFormat="1" spans="1:6">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="23">
@@ -3456,19 +3454,19 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="20">
@@ -3476,27 +3474,27 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="20">
         <v>41667</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:6">
-      <c r="A20" s="18">
+    <row r="20" s="9" customFormat="1" spans="1:6">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -3516,19 +3514,19 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="20">
@@ -3536,19 +3534,19 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="20">
@@ -3556,19 +3554,19 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F23" s="20">
@@ -3576,19 +3574,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="20">
@@ -3596,19 +3594,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="20">
@@ -3616,19 +3614,19 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="20">
@@ -3636,19 +3634,19 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F27" s="20">
@@ -3656,19 +3654,19 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="20">
@@ -3676,19 +3674,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="20">
@@ -3696,19 +3694,19 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="11">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F30" s="20">
@@ -3716,19 +3714,19 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="20">
@@ -3736,19 +3734,19 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F32" s="20">
@@ -3756,19 +3754,19 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F33" s="20">
@@ -3776,19 +3774,19 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F34" s="20">
@@ -3796,19 +3794,19 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F35" s="20">
@@ -3816,39 +3814,39 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F36" s="20">
         <v>44189</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:6">
-      <c r="A37" s="14">
+    <row r="37" s="7" customFormat="1" spans="1:6">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="22">
@@ -3856,19 +3854,19 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F38" s="20">
@@ -3876,39 +3874,39 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F39" s="20">
         <v>35368</v>
       </c>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:6">
-      <c r="A40" s="14">
+    <row r="40" s="7" customFormat="1" spans="1:6">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F40" s="22">
@@ -3916,19 +3914,19 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F41" s="20">
@@ -3936,19 +3934,19 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F42" s="20">
@@ -3956,19 +3954,19 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="20">
@@ -3976,19 +3974,19 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="11">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F44" s="20">
@@ -3996,19 +3994,19 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F45" s="20">
@@ -4016,19 +4014,19 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="11">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F46" s="20">
@@ -4036,19 +4034,19 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F47" s="20">
@@ -4056,59 +4054,59 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="11">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="11" t="s">
         <v>136</v>
       </c>
       <c r="F48" s="20">
         <v>35489</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:6">
-      <c r="A49" s="16">
+    <row r="49" s="8" customFormat="1" spans="1:6">
+      <c r="A49" s="17">
         <v>47</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="18" t="s">
         <v>155</v>
       </c>
       <c r="F49" s="23">
         <v>36875</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" spans="1:6">
-      <c r="A50" s="16">
+    <row r="50" s="8" customFormat="1" spans="1:6">
+      <c r="A50" s="17">
         <v>48</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="18" t="s">
         <v>155</v>
       </c>
       <c r="F50" s="23">
@@ -4116,39 +4114,39 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="11">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F51" s="20">
         <v>35935</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:6">
-      <c r="A52" s="14">
+    <row r="52" s="7" customFormat="1" spans="1:6">
+      <c r="A52" s="15">
         <v>50</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F52" s="22">
@@ -4156,19 +4154,19 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="11">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F53" s="20">
@@ -4176,39 +4174,39 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="11">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F54" s="20">
         <v>40850</v>
       </c>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:6">
-      <c r="A55" s="14">
+    <row r="55" s="7" customFormat="1" spans="1:6">
+      <c r="A55" s="15">
         <v>53</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="16" t="s">
         <v>155</v>
       </c>
       <c r="F55" s="22">
@@ -4216,19 +4214,19 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="11">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F56" s="20">
@@ -4236,19 +4234,19 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="11">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F57" s="20">
@@ -4256,19 +4254,19 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="11">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F58" s="20">
@@ -4276,19 +4274,19 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="11">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F59" s="20">
@@ -4296,19 +4294,19 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="11">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F60" s="20">
@@ -4316,19 +4314,19 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="11">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F61" s="20">
@@ -4336,19 +4334,19 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="11">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F62" s="20">
@@ -4356,19 +4354,19 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="11">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F63" s="20">
@@ -4376,19 +4374,19 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="11">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F64" s="20">
@@ -4396,19 +4394,19 @@
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="11">
+      <c r="A65" s="12">
         <v>63</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F65" s="20">
@@ -4416,19 +4414,19 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="11">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="11" t="s">
         <v>177</v>
       </c>
       <c r="F66" s="20">
@@ -4436,19 +4434,19 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="11">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F67" s="20">
@@ -4456,19 +4454,19 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="11">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F68" s="20">
@@ -4476,19 +4474,19 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="11">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F69" s="20">
@@ -4496,19 +4494,19 @@
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="11">
+      <c r="A70" s="12">
         <v>68</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F70" s="20">
@@ -4516,19 +4514,19 @@
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="11">
+      <c r="A71" s="12">
         <v>69</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F71" s="20">
@@ -4536,19 +4534,19 @@
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="11">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F72" s="20">
@@ -4556,19 +4554,19 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="11">
+      <c r="A73" s="12">
         <v>71</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C73" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F73" s="20">
@@ -4576,19 +4574,19 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="11">
+      <c r="A74" s="12">
         <v>72</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="11" t="s">
         <v>211</v>
       </c>
       <c r="F74" s="20">
@@ -4596,39 +4594,39 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="11">
+      <c r="A75" s="12">
         <v>73</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="11" t="s">
         <v>236</v>
       </c>
       <c r="F75" s="20">
         <v>44453</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" spans="1:6">
-      <c r="A76" s="14">
+    <row r="76" s="7" customFormat="1" spans="1:6">
+      <c r="A76" s="15">
         <v>74</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="16" t="s">
         <v>240</v>
       </c>
       <c r="F76" s="22">
@@ -4636,19 +4634,19 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="11">
+      <c r="A77" s="12">
         <v>75</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="11" t="s">
         <v>240</v>
       </c>
       <c r="F77" s="20">
@@ -4656,19 +4654,19 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="11">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="11" t="s">
         <v>240</v>
       </c>
       <c r="F78" s="20">
@@ -4676,19 +4674,19 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="11">
+      <c r="A79" s="12">
         <v>77</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="11" t="s">
         <v>240</v>
       </c>
       <c r="F79" s="20">
@@ -4696,19 +4694,19 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="11">
+      <c r="A80" s="12">
         <v>78</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="11" t="s">
         <v>240</v>
       </c>
       <c r="F80" s="20">
@@ -4716,39 +4714,39 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="11">
+      <c r="A81" s="12">
         <v>79</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="11" t="s">
         <v>240</v>
       </c>
       <c r="F81" s="20">
         <v>40767</v>
       </c>
     </row>
-    <row r="82" s="6" customFormat="1" spans="1:6">
-      <c r="A82" s="14">
+    <row r="82" s="7" customFormat="1" spans="1:6">
+      <c r="A82" s="15">
         <v>80</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="16" t="s">
         <v>240</v>
       </c>
       <c r="F82" s="22">
@@ -4756,59 +4754,59 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="11">
+      <c r="A83" s="12">
         <v>81</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F83" s="20">
         <v>41689</v>
       </c>
     </row>
-    <row r="84" s="7" customFormat="1" spans="1:6">
-      <c r="A84" s="16">
+    <row r="84" s="8" customFormat="1" spans="1:6">
+      <c r="A84" s="17">
         <v>82</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F84" s="23">
         <v>39517</v>
       </c>
     </row>
-    <row r="85" s="7" customFormat="1" spans="1:6">
-      <c r="A85" s="16">
+    <row r="85" s="8" customFormat="1" spans="1:6">
+      <c r="A85" s="17">
         <v>83</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F85" s="23">
@@ -4816,39 +4814,39 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="11">
+      <c r="A86" s="12">
         <v>84</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F86" s="20">
         <v>42527</v>
       </c>
     </row>
-    <row r="87" s="7" customFormat="1" spans="1:6">
-      <c r="A87" s="16">
+    <row r="87" s="8" customFormat="1" spans="1:6">
+      <c r="A87" s="17">
         <v>85</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F87" s="23">
@@ -4856,19 +4854,19 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="11">
+      <c r="A88" s="12">
         <v>86</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F88" s="20">
@@ -4876,19 +4874,19 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="11">
+      <c r="A89" s="12">
         <v>87</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F89" s="20">
@@ -4896,19 +4894,19 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="11">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F90" s="20">
@@ -4916,39 +4914,39 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="11">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="11" t="s">
         <v>287</v>
       </c>
       <c r="F91" s="20">
         <v>36362</v>
       </c>
     </row>
-    <row r="92" s="6" customFormat="1" spans="1:6">
-      <c r="A92" s="14">
+    <row r="92" s="7" customFormat="1" spans="1:6">
+      <c r="A92" s="15">
         <v>90</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="16" t="s">
         <v>287</v>
       </c>
       <c r="F92" s="22">
@@ -4956,39 +4954,39 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="11">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="11" t="s">
         <v>287</v>
       </c>
       <c r="F93" s="20">
         <v>36552</v>
       </c>
     </row>
-    <row r="94" s="6" customFormat="1" spans="1:6">
-      <c r="A94" s="14">
+    <row r="94" s="7" customFormat="1" spans="1:6">
+      <c r="A94" s="15">
         <v>92</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="16" t="s">
         <v>287</v>
       </c>
       <c r="F94" s="22">
@@ -4996,19 +4994,19 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="11">
+      <c r="A95" s="12">
         <v>93</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="E95" s="11" t="s">
         <v>287</v>
       </c>
       <c r="F95" s="20">
@@ -5016,26 +5014,26 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="11">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F96" s="20">
         <v>39563</v>
       </c>
     </row>
-    <row r="97" s="9" customFormat="1" spans="1:6">
+    <row r="97" s="10" customFormat="1" spans="1:6">
       <c r="A97" s="25">
         <v>95</v>
       </c>
@@ -5056,19 +5054,19 @@
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="11">
+      <c r="A98" s="12">
         <v>96</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F98" s="20">
@@ -5076,19 +5074,19 @@
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="11">
+      <c r="A99" s="12">
         <v>97</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C99" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="E99" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F99" s="20">
@@ -5096,26 +5094,26 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="11">
+      <c r="A100" s="12">
         <v>98</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E100" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F100" s="20">
         <v>40400</v>
       </c>
     </row>
-    <row r="101" s="9" customFormat="1" spans="1:6">
+    <row r="101" s="10" customFormat="1" spans="1:6">
       <c r="A101" s="25">
         <v>99</v>
       </c>
@@ -5136,39 +5134,39 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="11">
+      <c r="A102" s="12">
         <v>100</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F102" s="20">
         <v>35619</v>
       </c>
     </row>
-    <row r="103" s="7" customFormat="1" spans="1:6">
-      <c r="A103" s="16">
+    <row r="103" s="8" customFormat="1" spans="1:6">
+      <c r="A103" s="17">
         <v>101</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="18" t="s">
         <v>303</v>
       </c>
       <c r="F103" s="23">
@@ -5176,19 +5174,19 @@
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="11">
+      <c r="A104" s="12">
         <v>102</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="10" t="s">
+      <c r="E104" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F104" s="20">
@@ -5196,39 +5194,39 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="11">
+      <c r="A105" s="12">
         <v>103</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E105" s="10" t="s">
+      <c r="E105" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F105" s="20">
         <v>35216</v>
       </c>
     </row>
-    <row r="106" s="7" customFormat="1" spans="1:6">
-      <c r="A106" s="16">
+    <row r="106" s="8" customFormat="1" spans="1:6">
+      <c r="A106" s="17">
         <v>104</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E106" s="18" t="s">
         <v>303</v>
       </c>
       <c r="F106" s="23">
@@ -5236,19 +5234,19 @@
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="11">
+      <c r="A107" s="12">
         <v>105</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="10" t="s">
+      <c r="E107" s="11" t="s">
         <v>303</v>
       </c>
       <c r="F107" s="20">
@@ -5256,19 +5254,19 @@
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="11">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="11" t="s">
         <v>340</v>
       </c>
       <c r="F108" s="20">
@@ -5276,19 +5274,19 @@
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="11">
+      <c r="A109" s="12">
         <v>107</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E109" s="11" t="s">
         <v>340</v>
       </c>
       <c r="F109" s="20">
@@ -5296,19 +5294,19 @@
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="11">
+      <c r="A110" s="12">
         <v>108</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="11" t="s">
         <v>340</v>
       </c>
       <c r="F110" s="20">
@@ -5316,19 +5314,19 @@
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="11">
+      <c r="A111" s="12">
         <v>109</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="10" t="s">
+      <c r="E111" s="11" t="s">
         <v>340</v>
       </c>
       <c r="F111" s="20">
@@ -5336,19 +5334,19 @@
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="11">
+      <c r="A112" s="12">
         <v>110</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="11" t="s">
         <v>340</v>
       </c>
       <c r="F112" s="20">
@@ -5356,19 +5354,19 @@
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="11">
+      <c r="A113" s="12">
         <v>111</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F113" s="20">
@@ -5376,19 +5374,19 @@
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="11">
+      <c r="A114" s="12">
         <v>112</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F114" s="20">
@@ -5396,19 +5394,19 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="11">
+      <c r="A115" s="12">
         <v>113</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E115" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F115" s="20">
@@ -5416,19 +5414,19 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="11">
+      <c r="A116" s="12">
         <v>114</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F116" s="20">
@@ -5436,19 +5434,19 @@
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="11">
+      <c r="A117" s="12">
         <v>115</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F117" s="20">
@@ -5456,19 +5454,19 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="11">
+      <c r="A118" s="12">
         <v>116</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="11" t="s">
         <v>356</v>
       </c>
       <c r="F118" s="20">
@@ -5476,19 +5474,19 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="11">
+      <c r="A119" s="12">
         <v>117</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="11" t="s">
         <v>375</v>
       </c>
       <c r="F119" s="20">
@@ -5496,19 +5494,19 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="11">
+      <c r="A120" s="12">
         <v>118</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="11" t="s">
         <v>375</v>
       </c>
       <c r="F120" s="20">
@@ -5516,19 +5514,19 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="11">
+      <c r="A121" s="12">
         <v>119</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="11" t="s">
         <v>382</v>
       </c>
       <c r="F121" s="20">
@@ -5536,19 +5534,19 @@
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="11">
+      <c r="A122" s="12">
         <v>120</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="11" t="s">
         <v>382</v>
       </c>
       <c r="F122" s="20">
@@ -5556,19 +5554,19 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="11">
+      <c r="A123" s="12">
         <v>121</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="11" t="s">
         <v>382</v>
       </c>
       <c r="F123" s="20">
@@ -5576,26 +5574,26 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="11">
+      <c r="A124" s="12">
         <v>122</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F124" s="20">
         <v>43570</v>
       </c>
     </row>
-    <row r="125" s="9" customFormat="1" spans="1:6">
+    <row r="125" s="10" customFormat="1" spans="1:6">
       <c r="A125" s="25">
         <v>123</v>
       </c>
@@ -5616,59 +5614,59 @@
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="11">
+      <c r="A126" s="12">
         <v>124</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E126" s="10" t="s">
+      <c r="E126" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F126" s="20">
         <v>40400</v>
       </c>
     </row>
-    <row r="127" s="6" customFormat="1" spans="1:6">
-      <c r="A127" s="14">
+    <row r="127" s="7" customFormat="1" spans="1:6">
+      <c r="A127" s="15">
         <v>125</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="15" t="s">
+      <c r="C127" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="D127" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="16" t="s">
         <v>392</v>
       </c>
       <c r="F127" s="22">
         <v>43262</v>
       </c>
     </row>
-    <row r="128" s="6" customFormat="1" spans="1:6">
-      <c r="A128" s="14">
+    <row r="128" s="7" customFormat="1" spans="1:6">
+      <c r="A128" s="15">
         <v>126</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="15" t="s">
+      <c r="C128" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D128" s="15" t="s">
+      <c r="D128" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="15" t="s">
+      <c r="E128" s="16" t="s">
         <v>392</v>
       </c>
       <c r="F128" s="22">
@@ -5676,26 +5674,26 @@
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="11">
+      <c r="A129" s="12">
         <v>127</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="E129" s="10" t="s">
+      <c r="E129" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F129" s="20">
         <v>35100</v>
       </c>
     </row>
-    <row r="130" s="9" customFormat="1" spans="1:6">
+    <row r="130" s="10" customFormat="1" spans="1:6">
       <c r="A130" s="25">
         <v>128</v>
       </c>
@@ -5716,19 +5714,19 @@
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="11">
+      <c r="A131" s="12">
         <v>129</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="10" t="s">
+      <c r="E131" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F131" s="20">
@@ -5736,19 +5734,19 @@
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="11">
+      <c r="A132" s="12">
         <v>130</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F132" s="20">
@@ -5756,19 +5754,19 @@
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="11">
+      <c r="A133" s="12">
         <v>131</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F133" s="20">
@@ -5776,19 +5774,19 @@
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="11">
+      <c r="A134" s="12">
         <v>132</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F134" s="20">
@@ -5796,19 +5794,19 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="11">
+      <c r="A135" s="12">
         <v>133</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="E135" s="10" t="s">
+      <c r="E135" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F135" s="20">
@@ -5816,19 +5814,19 @@
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="11">
+      <c r="A136" s="12">
         <v>134</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F136" s="20">
@@ -5836,19 +5834,19 @@
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="11">
+      <c r="A137" s="12">
         <v>135</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E137" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F137" s="20">
@@ -5856,19 +5854,19 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="11">
+      <c r="A138" s="12">
         <v>136</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F138" s="20">
@@ -5876,19 +5874,19 @@
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="11">
+      <c r="A139" s="12">
         <v>137</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="C139" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="10" t="s">
+      <c r="E139" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F139" s="20">
@@ -5896,19 +5894,19 @@
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="11">
+      <c r="A140" s="12">
         <v>138</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="10" t="s">
+      <c r="E140" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F140" s="20">
@@ -5916,19 +5914,19 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="11">
+      <c r="A141" s="12">
         <v>139</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C141" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F141" s="20">
@@ -5936,19 +5934,19 @@
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="11">
+      <c r="A142" s="12">
         <v>140</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F142" s="20">
@@ -5956,19 +5954,19 @@
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="11">
+      <c r="A143" s="12">
         <v>141</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="11" t="s">
         <v>392</v>
       </c>
       <c r="F143" s="20">
@@ -5976,19 +5974,19 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="11">
+      <c r="A144" s="12">
         <v>142</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="10" t="s">
+      <c r="E144" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F144" s="20">
@@ -5996,19 +5994,19 @@
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="11">
+      <c r="A145" s="12">
         <v>143</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="E145" s="10" t="s">
+      <c r="E145" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F145" s="20">
@@ -6016,19 +6014,19 @@
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="11">
+      <c r="A146" s="12">
         <v>144</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="10" t="s">
+      <c r="E146" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F146" s="20">
@@ -6036,19 +6034,19 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="11">
+      <c r="A147" s="12">
         <v>145</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F147" s="20">
@@ -6056,19 +6054,19 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="11">
+      <c r="A148" s="12">
         <v>146</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="E148" s="10" t="s">
+      <c r="E148" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F148" s="20">
@@ -6076,19 +6074,19 @@
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="11">
+      <c r="A149" s="12">
         <v>147</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="10" t="s">
+      <c r="E149" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F149" s="20">
@@ -6096,19 +6094,19 @@
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="11">
+      <c r="A150" s="12">
         <v>148</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F150" s="20">
@@ -6116,19 +6114,19 @@
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="11">
+      <c r="A151" s="12">
         <v>149</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="10" t="s">
+      <c r="E151" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F151" s="20">
@@ -6136,19 +6134,19 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="11">
+      <c r="A152" s="12">
         <v>150</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E152" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F152" s="20">
@@ -6156,19 +6154,19 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="11">
+      <c r="A153" s="12">
         <v>151</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F153" s="20">
@@ -6176,19 +6174,19 @@
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="11">
+      <c r="A154" s="12">
         <v>152</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F154" s="20">
@@ -6196,19 +6194,19 @@
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="11">
+      <c r="A155" s="12">
         <v>153</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E155" s="10" t="s">
+      <c r="E155" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F155" s="20">
@@ -6216,19 +6214,19 @@
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="11">
+      <c r="A156" s="12">
         <v>154</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="10" t="s">
+      <c r="E156" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F156" s="20">
@@ -6236,19 +6234,19 @@
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="11">
+      <c r="A157" s="12">
         <v>155</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="10" t="s">
+      <c r="D157" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F157" s="20">
@@ -6256,19 +6254,19 @@
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="11">
+      <c r="A158" s="12">
         <v>156</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F158" s="20">
@@ -6276,19 +6274,19 @@
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="11">
+      <c r="A159" s="12">
         <v>157</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F159" s="20">
@@ -6296,19 +6294,19 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="11">
+      <c r="A160" s="12">
         <v>158</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F160" s="20">
@@ -6316,19 +6314,19 @@
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="11">
+      <c r="A161" s="12">
         <v>159</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F161" s="20">
@@ -6336,19 +6334,19 @@
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="11">
+      <c r="A162" s="12">
         <v>160</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="10" t="s">
+      <c r="E162" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F162" s="20">
@@ -6356,19 +6354,19 @@
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="11">
+      <c r="A163" s="12">
         <v>161</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E163" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F163" s="20">
@@ -6376,19 +6374,19 @@
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="11">
+      <c r="A164" s="12">
         <v>162</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E164" s="11" t="s">
         <v>453</v>
       </c>
       <c r="F164" s="20">
@@ -6396,19 +6394,19 @@
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="11">
+      <c r="A165" s="12">
         <v>163</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="D165" s="10" t="s">
+      <c r="D165" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E165" s="11" t="s">
         <v>517</v>
       </c>
       <c r="F165" s="20">
@@ -6416,19 +6414,19 @@
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="11">
+      <c r="A166" s="12">
         <v>164</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="10" t="s">
+      <c r="D166" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="E166" s="10" t="s">
+      <c r="E166" s="11" t="s">
         <v>517</v>
       </c>
       <c r="F166" s="20">
@@ -6436,19 +6434,19 @@
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="11">
+      <c r="A167" s="12">
         <v>165</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="D167" s="10" t="s">
+      <c r="D167" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="E167" s="10" t="s">
+      <c r="E167" s="11" t="s">
         <v>524</v>
       </c>
       <c r="F167" s="20">
@@ -6456,19 +6454,19 @@
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="11">
+      <c r="A168" s="12">
         <v>166</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="D168" s="10" t="s">
+      <c r="D168" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="10" t="s">
+      <c r="E168" s="11" t="s">
         <v>528</v>
       </c>
       <c r="F168" s="20">
@@ -6476,19 +6474,19 @@
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="11">
+      <c r="A169" s="12">
         <v>167</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="D169" s="10" t="s">
+      <c r="D169" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="10" t="s">
+      <c r="E169" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F169" s="20">
@@ -6496,19 +6494,19 @@
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="11">
+      <c r="A170" s="12">
         <v>168</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="10" t="s">
+      <c r="D170" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="E170" s="10" t="s">
+      <c r="E170" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F170" s="20">
@@ -6516,19 +6514,19 @@
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="11">
+      <c r="A171" s="12">
         <v>169</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="D171" s="10" t="s">
+      <c r="D171" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="E171" s="10" t="s">
+      <c r="E171" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F171" s="20">
@@ -6536,39 +6534,39 @@
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="11">
+      <c r="A172" s="12">
         <v>170</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="D172" s="10" t="s">
+      <c r="D172" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="E172" s="10" t="s">
+      <c r="E172" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F172" s="20">
         <v>42348</v>
       </c>
     </row>
-    <row r="173" s="6" customFormat="1" spans="1:6">
-      <c r="A173" s="14">
+    <row r="173" s="7" customFormat="1" spans="1:6">
+      <c r="A173" s="15">
         <v>171</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="B173" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="C173" s="15" t="s">
+      <c r="C173" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="D173" s="15" t="s">
+      <c r="D173" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="E173" s="15" t="s">
+      <c r="E173" s="16" t="s">
         <v>532</v>
       </c>
       <c r="F173" s="22">
@@ -6576,19 +6574,19 @@
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="11">
+      <c r="A174" s="12">
         <v>172</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="10" t="s">
+      <c r="D174" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="E174" s="10" t="s">
+      <c r="E174" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F174" s="20">
@@ -6596,19 +6594,19 @@
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="11">
+      <c r="A175" s="12">
         <v>173</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="D175" s="10" t="s">
+      <c r="D175" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="E175" s="10" t="s">
+      <c r="E175" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F175" s="20">
@@ -6616,19 +6614,19 @@
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="11">
+      <c r="A176" s="12">
         <v>174</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="D176" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="E176" s="10" t="s">
+      <c r="E176" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F176" s="20">
@@ -6636,39 +6634,39 @@
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="11">
+      <c r="A177" s="12">
         <v>175</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="E177" s="10" t="s">
+      <c r="E177" s="11" t="s">
         <v>532</v>
       </c>
       <c r="F177" s="20">
         <v>40323</v>
       </c>
     </row>
-    <row r="178" s="6" customFormat="1" spans="1:6">
-      <c r="A178" s="14">
+    <row r="178" s="7" customFormat="1" spans="1:6">
+      <c r="A178" s="15">
         <v>176</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="15" t="s">
+      <c r="C178" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="D178" s="15" t="s">
+      <c r="D178" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="E178" s="15" t="s">
+      <c r="E178" s="16" t="s">
         <v>532</v>
       </c>
       <c r="F178" s="22">
@@ -6676,19 +6674,19 @@
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="11">
+      <c r="A179" s="12">
         <v>177</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="E179" s="10" t="s">
+      <c r="E179" s="11" t="s">
         <v>563</v>
       </c>
       <c r="F179" s="20">
@@ -6696,19 +6694,19 @@
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="11">
+      <c r="A180" s="12">
         <v>178</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="D180" s="10" t="s">
+      <c r="D180" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="E180" s="10" t="s">
+      <c r="E180" s="11" t="s">
         <v>563</v>
       </c>
       <c r="F180" s="20">
@@ -6716,19 +6714,19 @@
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="11">
+      <c r="A181" s="12">
         <v>179</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E181" s="11" t="s">
         <v>563</v>
       </c>
       <c r="F181" s="20">
@@ -6736,19 +6734,19 @@
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="11">
+      <c r="A182" s="12">
         <v>180</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D182" s="10" t="s">
+      <c r="D182" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E182" s="11" t="s">
         <v>563</v>
       </c>
       <c r="F182" s="20">
@@ -6756,19 +6754,19 @@
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="11">
+      <c r="A183" s="12">
         <v>181</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="E183" s="11" t="s">
         <v>576</v>
       </c>
       <c r="F183" s="20">
@@ -6776,19 +6774,19 @@
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="11">
+      <c r="A184" s="12">
         <v>182</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="D184" s="10" t="s">
+      <c r="D184" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="11" t="s">
         <v>576</v>
       </c>
       <c r="F184" s="20">
@@ -6796,19 +6794,19 @@
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="11">
+      <c r="A185" s="12">
         <v>183</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="E185" s="10" t="s">
+      <c r="E185" s="11" t="s">
         <v>583</v>
       </c>
       <c r="F185" s="20">
@@ -6816,19 +6814,19 @@
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="11">
+      <c r="A186" s="12">
         <v>184</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="D186" s="10" t="s">
+      <c r="D186" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="E186" s="10" t="s">
+      <c r="E186" s="11" t="s">
         <v>583</v>
       </c>
       <c r="F186" s="20">
@@ -6836,19 +6834,19 @@
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="11">
+      <c r="A187" s="12">
         <v>185</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="E187" s="10" t="s">
+      <c r="E187" s="11" t="s">
         <v>583</v>
       </c>
       <c r="F187" s="20">
@@ -6856,19 +6854,19 @@
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="11">
+      <c r="A188" s="12">
         <v>186</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="D188" s="10" t="s">
+      <c r="D188" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="E188" s="10" t="s">
+      <c r="E188" s="11" t="s">
         <v>593</v>
       </c>
       <c r="F188" s="20">
@@ -6876,19 +6874,19 @@
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="11">
+      <c r="A189" s="12">
         <v>187</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E189" s="10" t="s">
+      <c r="E189" s="11" t="s">
         <v>593</v>
       </c>
       <c r="F189" s="20">
@@ -6896,19 +6894,19 @@
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="11">
+      <c r="A190" s="12">
         <v>188</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="D190" s="10" t="s">
+      <c r="D190" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="10" t="s">
+      <c r="E190" s="11" t="s">
         <v>593</v>
       </c>
       <c r="F190" s="20">
@@ -6916,19 +6914,19 @@
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="11">
+      <c r="A191" s="12">
         <v>189</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="D191" s="10" t="s">
+      <c r="D191" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="E191" s="10" t="s">
+      <c r="E191" s="11" t="s">
         <v>593</v>
       </c>
       <c r="F191" s="20">
@@ -6936,19 +6934,19 @@
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="11">
+      <c r="A192" s="12">
         <v>190</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="E192" s="10" t="s">
+      <c r="E192" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F192" s="20">
@@ -6956,19 +6954,19 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="11">
+      <c r="A193" s="12">
         <v>191</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="E193" s="10" t="s">
+      <c r="E193" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F193" s="20">
@@ -6976,19 +6974,19 @@
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="11">
+      <c r="A194" s="12">
         <v>192</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="E194" s="10" t="s">
+      <c r="E194" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F194" s="20">
@@ -6996,19 +6994,19 @@
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="11">
+      <c r="A195" s="12">
         <v>193</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="10" t="s">
+      <c r="D195" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="E195" s="10" t="s">
+      <c r="E195" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F195" s="20">
@@ -7016,19 +7014,19 @@
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="11">
+      <c r="A196" s="12">
         <v>194</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="D196" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="E196" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F196" s="20">
@@ -7036,19 +7034,19 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="11">
+      <c r="A197" s="12">
         <v>195</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="10" t="s">
+      <c r="D197" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="E197" s="10" t="s">
+      <c r="E197" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F197" s="20">
@@ -7056,19 +7054,19 @@
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="11">
+      <c r="A198" s="12">
         <v>196</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="10" t="s">
+      <c r="D198" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="E198" s="10" t="s">
+      <c r="E198" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F198" s="20">
@@ -7076,19 +7074,19 @@
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="11">
+      <c r="A199" s="12">
         <v>197</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="D199" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="E199" s="10" t="s">
+      <c r="E199" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F199" s="20">
@@ -7096,19 +7094,19 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="11">
+      <c r="A200" s="12">
         <v>198</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="D200" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="E200" s="10" t="s">
+      <c r="E200" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F200" s="20">
@@ -7116,19 +7114,19 @@
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="11">
+      <c r="A201" s="12">
         <v>199</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D201" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="E201" s="10" t="s">
+      <c r="E201" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F201" s="20">
@@ -7136,19 +7134,19 @@
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="11">
+      <c r="A202" s="12">
         <v>200</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="D202" s="10" t="s">
+      <c r="D202" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E202" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F202" s="20">
@@ -7156,19 +7154,19 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="11">
+      <c r="A203" s="12">
         <v>201</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="D203" s="10" t="s">
+      <c r="D203" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="E203" s="10" t="s">
+      <c r="E203" s="11" t="s">
         <v>606</v>
       </c>
       <c r="F203" s="20">
@@ -7176,19 +7174,19 @@
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="11">
+      <c r="A204" s="12">
         <v>202</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="10" t="s">
+      <c r="D204" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="E204" s="10" t="s">
+      <c r="E204" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F204" s="20">
@@ -7196,19 +7194,19 @@
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="11">
+      <c r="A205" s="12">
         <v>203</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="D205" s="10" t="s">
+      <c r="D205" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="E205" s="10" t="s">
+      <c r="E205" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F205" s="20">
@@ -7216,19 +7214,19 @@
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="11">
+      <c r="A206" s="12">
         <v>204</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="D206" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="E206" s="10" t="s">
+      <c r="E206" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F206" s="20">
@@ -7236,19 +7234,19 @@
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="11">
+      <c r="A207" s="12">
         <v>205</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="D207" s="10" t="s">
+      <c r="D207" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="10" t="s">
+      <c r="E207" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F207" s="20">
@@ -7256,19 +7254,19 @@
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="11">
+      <c r="A208" s="12">
         <v>206</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="D208" s="10" t="s">
+      <c r="D208" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="E208" s="10" t="s">
+      <c r="E208" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F208" s="20">
@@ -7276,19 +7274,19 @@
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="11">
+      <c r="A209" s="12">
         <v>207</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D209" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="E209" s="10" t="s">
+      <c r="E209" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F209" s="20">
@@ -7296,19 +7294,19 @@
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="11">
+      <c r="A210" s="12">
         <v>208</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="D210" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="E210" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F210" s="20">
@@ -7316,19 +7314,19 @@
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="11">
+      <c r="A211" s="12">
         <v>209</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="D211" s="10" t="s">
+      <c r="D211" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F211" s="20">
@@ -7336,19 +7334,19 @@
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="11">
+      <c r="A212" s="12">
         <v>210</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="D212" s="10" t="s">
+      <c r="D212" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E212" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F212" s="20">
@@ -7356,19 +7354,19 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="11">
+      <c r="A213" s="12">
         <v>211</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="D213" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="E213" s="10" t="s">
+      <c r="E213" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F213" s="20">
@@ -7376,19 +7374,19 @@
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="11">
+      <c r="A214" s="12">
         <v>212</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="D214" s="10" t="s">
+      <c r="D214" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="11" t="s">
         <v>643</v>
       </c>
       <c r="F214" s="20">
@@ -7406,8 +7404,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -7494,7 +7492,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C8" s="1">

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" activeTab="1"/>
+    <workbookView windowWidth="15000" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
     <sheet name="行业" sheetId="2" r:id="rId2"/>
+    <sheet name="初筛" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2046,12 +2047,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2084,6 +2086,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2093,22 +2103,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2131,7 +2125,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2145,16 +2139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2163,13 +2150,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2199,6 +2179,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2206,22 +2216,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2230,13 +2232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF7F43F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7F43F"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2254,37 +2256,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFD6FCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2302,7 +2292,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2314,127 +2430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2476,7 +2484,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2485,7 +2493,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2517,6 +2525,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2527,21 +2550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2563,100 +2571,79 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2665,90 +2652,124 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2805,6 +2826,7 @@
   <colors>
     <mruColors>
       <color rgb="00F7F43F"/>
+      <color rgb="00FD6FCF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3103,4293 +3125,4293 @@
   <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="A$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.69230769230769" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.8461538461538" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.3076923076923" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.3076923076923" style="11" customWidth="1"/>
-    <col min="6" max="6" width="19.5384615384615" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.69230769230769" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="35">
         <v>38930</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:6">
-      <c r="A3" s="13">
+    <row r="3" s="29" customFormat="1" spans="1:6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>35639</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:6">
-      <c r="A4" s="13">
+    <row r="4" s="29" customFormat="1" spans="1:6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>35543</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="35">
         <v>36738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="35">
         <v>38203</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="35">
         <v>40059</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:6">
-      <c r="A8" s="15">
+    <row r="8" s="30" customFormat="1" spans="1:6">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>40604</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:6">
-      <c r="A9" s="15">
+    <row r="9" s="30" customFormat="1" spans="1:6">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>40844</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="12">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="35">
         <v>40758</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="35">
         <v>41040</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="35">
         <v>42545</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="35">
         <v>42165</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="35">
         <v>38049</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="35">
         <v>40763</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" spans="1:6">
-      <c r="A16" s="17">
+    <row r="16" s="31" customFormat="1" spans="1:6">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>35948</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:6">
-      <c r="A17" s="17">
+    <row r="17" s="31" customFormat="1" spans="1:6">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>37923</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="35">
         <v>40604</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="35">
         <v>41667</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:6">
-      <c r="A20" s="3">
+    <row r="20" s="32" customFormat="1" spans="1:6">
+      <c r="A20" s="27">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="36">
         <v>42870</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="35">
         <v>40500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="35">
         <v>42773</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="35">
         <v>40116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="35">
         <v>34093</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="12">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="35">
         <v>37788</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="35">
         <v>36817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="35">
         <v>36732</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="12">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="35">
         <v>40449</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="12">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="35">
         <v>38124</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="12">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="35">
         <v>35569</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="12">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="35">
         <v>40743</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="35">
         <v>42822</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="12">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="35">
         <v>35417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="12">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="35">
         <v>39622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="12">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="35">
         <v>38490</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="12">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="35">
         <v>44189</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:6">
-      <c r="A37" s="15">
+    <row r="37" s="30" customFormat="1" spans="1:6">
+      <c r="A37" s="8">
         <v>35</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="21">
         <v>43389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="12">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="35">
         <v>41054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="12">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="35">
         <v>35368</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" spans="1:6">
-      <c r="A40" s="15">
+    <row r="40" s="30" customFormat="1" spans="1:6">
+      <c r="A40" s="8">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>43228</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="12">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="35">
         <v>36353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="12">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="35">
         <v>40716</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="12">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="35">
         <v>34460</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="12">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="35">
         <v>35248</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="12">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="35">
         <v>40101</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="12">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="35">
         <v>36096</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="12">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="35">
         <v>35279</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="12">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="35">
         <v>35489</v>
       </c>
     </row>
-    <row r="49" s="8" customFormat="1" spans="1:6">
-      <c r="A49" s="17">
+    <row r="49" s="31" customFormat="1" spans="1:6">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>36875</v>
       </c>
     </row>
-    <row r="50" s="8" customFormat="1" spans="1:6">
-      <c r="A50" s="17">
+    <row r="50" s="31" customFormat="1" spans="1:6">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>35607</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="12">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="35">
         <v>35935</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="1:6">
-      <c r="A52" s="15">
+    <row r="52" s="30" customFormat="1" spans="1:6">
+      <c r="A52" s="8">
         <v>50</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="21">
         <v>38173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="12">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="35">
         <v>34250</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="12">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="35">
         <v>40850</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:6">
-      <c r="A55" s="15">
+    <row r="55" s="30" customFormat="1" spans="1:6">
+      <c r="A55" s="8">
         <v>53</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="21">
         <v>37078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="12">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="35">
         <v>35677</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="12">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="35">
         <v>43601</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="12">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="35">
         <v>35292</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="12">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="35">
         <v>35598</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="12">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="35">
         <v>37834</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="12">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="35">
         <v>40491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="12">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="35">
         <v>36896</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="12">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="35">
         <v>37799</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="12">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="35">
         <v>36622</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="12">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="35">
         <v>39297</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="12">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="35">
         <v>36902</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="12">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="35">
         <v>42824</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="12">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="35">
         <v>43248</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="12">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="35">
         <v>41535</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="12">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="35">
         <v>35387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="12">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="35">
         <v>34404</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="12">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="35">
         <v>42478</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="12">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="35">
         <v>42137</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="12">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="35">
         <v>38231</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="12">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="35">
         <v>44453</v>
       </c>
     </row>
-    <row r="76" s="7" customFormat="1" spans="1:6">
-      <c r="A76" s="15">
+    <row r="76" s="30" customFormat="1" spans="1:6">
+      <c r="A76" s="8">
         <v>74</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="21">
         <v>35696</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="12">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="35">
         <v>39041</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="12">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="35">
         <v>37294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="12">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="35">
         <v>39701</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="12">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="35">
         <v>42524</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="12">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="35">
         <v>40767</v>
       </c>
     </row>
-    <row r="82" s="7" customFormat="1" spans="1:6">
-      <c r="A82" s="15">
+    <row r="82" s="30" customFormat="1" spans="1:6">
+      <c r="A82" s="8">
         <v>80</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="21">
         <v>39584</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="12">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="35">
         <v>41689</v>
       </c>
     </row>
-    <row r="84" s="8" customFormat="1" spans="1:6">
-      <c r="A84" s="17">
+    <row r="84" s="31" customFormat="1" spans="1:6">
+      <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F84" s="22">
         <v>39517</v>
       </c>
     </row>
-    <row r="85" s="8" customFormat="1" spans="1:6">
-      <c r="A85" s="17">
+    <row r="85" s="31" customFormat="1" spans="1:6">
+      <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="23">
+      <c r="F85" s="22">
         <v>39419</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="12">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="35">
         <v>42527</v>
       </c>
     </row>
-    <row r="87" s="8" customFormat="1" spans="1:6">
-      <c r="A87" s="17">
+    <row r="87" s="31" customFormat="1" spans="1:6">
+      <c r="A87" s="11">
         <v>85</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="23">
+      <c r="F87" s="22">
         <v>40977</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="12">
+      <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="35">
         <v>37705</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="12">
+      <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="35">
         <v>42979</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="12">
+      <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F90" s="35">
         <v>38454</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="12">
+      <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="35">
         <v>36362</v>
       </c>
     </row>
-    <row r="92" s="7" customFormat="1" spans="1:6">
-      <c r="A92" s="15">
+    <row r="92" s="30" customFormat="1" spans="1:6">
+      <c r="A92" s="8">
         <v>90</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F92" s="22">
+      <c r="F92" s="21">
         <v>35242</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="12">
+      <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F93" s="35">
         <v>36552</v>
       </c>
     </row>
-    <row r="94" s="7" customFormat="1" spans="1:6">
-      <c r="A94" s="15">
+    <row r="94" s="30" customFormat="1" spans="1:6">
+      <c r="A94" s="8">
         <v>92</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="21">
         <v>36934</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="12">
+      <c r="A95" s="3">
         <v>93</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F95" s="35">
         <v>36791</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="12">
+      <c r="A96" s="3">
         <v>94</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="35">
         <v>39563</v>
       </c>
     </row>
-    <row r="97" s="10" customFormat="1" spans="1:6">
-      <c r="A97" s="25">
+    <row r="97" s="33" customFormat="1" spans="1:6">
+      <c r="A97" s="14">
         <v>95</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D97" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="E97" s="26" t="s">
+      <c r="E97" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="F97" s="27">
+      <c r="F97" s="23">
         <v>43668</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="12">
+      <c r="A98" s="3">
         <v>96</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="35">
         <v>41191</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="12">
+      <c r="A99" s="3">
         <v>97</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="E99" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="35">
         <v>42800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="12">
+      <c r="A100" s="3">
         <v>98</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="35">
         <v>40400</v>
       </c>
     </row>
-    <row r="101" s="10" customFormat="1" spans="1:6">
-      <c r="A101" s="25">
+    <row r="101" s="33" customFormat="1" spans="1:6">
+      <c r="A101" s="14">
         <v>99</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="F101" s="27">
+      <c r="F101" s="23">
         <v>35710</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="12">
+      <c r="A102" s="3">
         <v>100</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="20">
+      <c r="F102" s="35">
         <v>35619</v>
       </c>
     </row>
-    <row r="103" s="8" customFormat="1" spans="1:6">
-      <c r="A103" s="17">
+    <row r="103" s="31" customFormat="1" spans="1:6">
+      <c r="A103" s="11">
         <v>101</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F103" s="23">
+      <c r="F103" s="22">
         <v>37467</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="12">
+      <c r="A104" s="3">
         <v>102</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="E104" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F104" s="20">
+      <c r="F104" s="35">
         <v>39463</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="12">
+      <c r="A105" s="3">
         <v>103</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E105" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="20">
+      <c r="F105" s="35">
         <v>35216</v>
       </c>
     </row>
-    <row r="106" s="8" customFormat="1" spans="1:6">
-      <c r="A106" s="17">
+    <row r="106" s="31" customFormat="1" spans="1:6">
+      <c r="A106" s="11">
         <v>104</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="F106" s="23">
+      <c r="F106" s="22">
         <v>35305</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="12">
+      <c r="A107" s="3">
         <v>105</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F107" s="35">
         <v>35110</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="12">
+      <c r="A108" s="3">
         <v>106</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F108" s="35">
         <v>36909</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="12">
+      <c r="A109" s="3">
         <v>107</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="11" t="s">
+      <c r="E109" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F109" s="20">
+      <c r="F109" s="35">
         <v>44277</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="12">
+      <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F110" s="35">
         <v>37712</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="12">
+      <c r="A111" s="3">
         <v>109</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F111" s="35">
         <v>40722</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="12">
+      <c r="A112" s="3">
         <v>110</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="35">
         <v>43783</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="12">
+      <c r="A113" s="3">
         <v>111</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E113" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F113" s="20">
+      <c r="F113" s="35">
         <v>35591</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="12">
+      <c r="A114" s="3">
         <v>112</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E114" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="35">
         <v>41908</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="12">
+      <c r="A115" s="3">
         <v>113</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="20">
+      <c r="F115" s="35">
         <v>35759</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="12">
+      <c r="A116" s="3">
         <v>114</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E116" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="35">
         <v>40472</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="12">
+      <c r="A117" s="3">
         <v>115</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F117" s="35">
         <v>42536</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="12">
+      <c r="A118" s="3">
         <v>116</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E118" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="35">
         <v>34309</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="12">
+      <c r="A119" s="3">
         <v>117</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="35">
         <v>37042</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="12">
+      <c r="A120" s="3">
         <v>118</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E120" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="35">
         <v>39190</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="12">
+      <c r="A121" s="3">
         <v>119</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E121" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F121" s="35">
         <v>34340</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="12">
+      <c r="A122" s="3">
         <v>120</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E122" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="35">
         <v>34432</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="12">
+      <c r="A123" s="3">
         <v>121</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="11" t="s">
+      <c r="D123" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E123" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="35">
         <v>36510</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="12">
+      <c r="A124" s="3">
         <v>122</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="11" t="s">
+      <c r="D124" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E124" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="35">
         <v>43570</v>
       </c>
     </row>
-    <row r="125" s="10" customFormat="1" spans="1:6">
-      <c r="A125" s="25">
+    <row r="125" s="33" customFormat="1" spans="1:6">
+      <c r="A125" s="14">
         <v>123</v>
       </c>
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="26" t="s">
+      <c r="D125" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="E125" s="26" t="s">
+      <c r="E125" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="F125" s="27">
+      <c r="F125" s="23">
         <v>43543</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="12">
+      <c r="A126" s="3">
         <v>124</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="35">
         <v>40400</v>
       </c>
     </row>
-    <row r="127" s="7" customFormat="1" spans="1:6">
-      <c r="A127" s="15">
+    <row r="127" s="30" customFormat="1" spans="1:6">
+      <c r="A127" s="8">
         <v>125</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="C127" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F127" s="22">
+      <c r="F127" s="21">
         <v>43262</v>
       </c>
     </row>
-    <row r="128" s="7" customFormat="1" spans="1:6">
-      <c r="A128" s="15">
+    <row r="128" s="30" customFormat="1" spans="1:6">
+      <c r="A128" s="8">
         <v>126</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="D128" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F128" s="22">
+      <c r="F128" s="21">
         <v>40116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="12">
+      <c r="A129" s="3">
         <v>127</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D129" s="11" t="s">
+      <c r="D129" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="35">
         <v>35100</v>
       </c>
     </row>
-    <row r="130" s="10" customFormat="1" spans="1:6">
-      <c r="A130" s="25">
+    <row r="130" s="33" customFormat="1" spans="1:6">
+      <c r="A130" s="14">
         <v>128</v>
       </c>
-      <c r="B130" s="26" t="s">
+      <c r="B130" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="26" t="s">
+      <c r="D130" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="26" t="s">
+      <c r="E130" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F130" s="23">
         <v>43322</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="12">
+      <c r="A131" s="3">
         <v>129</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="11" t="s">
+      <c r="D131" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="35">
         <v>40654</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="12">
+      <c r="A132" s="3">
         <v>130</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C132" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D132" s="11" t="s">
+      <c r="D132" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E132" s="11" t="s">
+      <c r="E132" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="35">
         <v>35599</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="12">
+      <c r="A133" s="3">
         <v>131</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E133" s="11" t="s">
+      <c r="E133" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="35">
         <v>40829</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="12">
+      <c r="A134" s="3">
         <v>132</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D134" s="11" t="s">
+      <c r="D134" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E134" s="11" t="s">
+      <c r="E134" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="35">
         <v>42138</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="12">
+      <c r="A135" s="3">
         <v>133</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F135" s="35">
         <v>40186</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="12">
+      <c r="A136" s="3">
         <v>134</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="11" t="s">
+      <c r="D136" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E136" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="35">
         <v>40379</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="12">
+      <c r="A137" s="3">
         <v>135</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="D137" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E137" s="11" t="s">
+      <c r="E137" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F137" s="35">
         <v>38048</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="12">
+      <c r="A138" s="3">
         <v>136</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="35">
         <v>40849</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="12">
+      <c r="A139" s="3">
         <v>137</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E139" s="11" t="s">
+      <c r="E139" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F139" s="20">
+      <c r="F139" s="35">
         <v>37609</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="12">
+      <c r="A140" s="3">
         <v>138</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="D140" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="20">
+      <c r="F140" s="35">
         <v>41010</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="12">
+      <c r="A141" s="3">
         <v>139</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="20">
+      <c r="F141" s="35">
         <v>37592</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="12">
+      <c r="A142" s="3">
         <v>140</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D142" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E142" s="11" t="s">
+      <c r="E142" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F142" s="20">
+      <c r="F142" s="35">
         <v>43488</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="12">
+      <c r="A143" s="3">
         <v>141</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="D143" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E143" s="11" t="s">
+      <c r="E143" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F143" s="20">
+      <c r="F143" s="35">
         <v>41040</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="12">
+      <c r="A144" s="3">
         <v>142</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F144" s="35">
         <v>40716</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="12">
+      <c r="A145" s="3">
         <v>143</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D145" s="11" t="s">
+      <c r="D145" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="20">
+      <c r="F145" s="35">
         <v>41894</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="12">
+      <c r="A146" s="3">
         <v>144</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C146" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="20">
+      <c r="F146" s="35">
         <v>38016</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="12">
+      <c r="A147" s="3">
         <v>145</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D147" s="11" t="s">
+      <c r="D147" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E147" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F147" s="20">
+      <c r="F147" s="35">
         <v>40347</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="12">
+      <c r="A148" s="3">
         <v>146</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F148" s="20">
+      <c r="F148" s="35">
         <v>39710</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="12">
+      <c r="A149" s="3">
         <v>147</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F149" s="20">
+      <c r="F149" s="35">
         <v>40983</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="12">
+      <c r="A150" s="3">
         <v>148</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D150" s="11" t="s">
+      <c r="D150" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E150" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="20">
+      <c r="F150" s="35">
         <v>39246</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="12">
+      <c r="A151" s="3">
         <v>149</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="20">
+      <c r="F151" s="35">
         <v>44060</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="12">
+      <c r="A152" s="3">
         <v>150</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D152" s="11" t="s">
+      <c r="D152" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E152" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F152" s="20">
+      <c r="F152" s="35">
         <v>36903</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="12">
+      <c r="A153" s="3">
         <v>151</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="20">
+      <c r="F153" s="35">
         <v>44046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="12">
+      <c r="A154" s="3">
         <v>152</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D154" s="11" t="s">
+      <c r="D154" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E154" s="11" t="s">
+      <c r="E154" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F154" s="20">
+      <c r="F154" s="35">
         <v>40220</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="12">
+      <c r="A155" s="3">
         <v>153</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F155" s="20">
+      <c r="F155" s="35">
         <v>40059</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="12">
+      <c r="A156" s="3">
         <v>154</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C156" s="11" t="s">
+      <c r="C156" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D156" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F156" s="20">
+      <c r="F156" s="35">
         <v>42859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="12">
+      <c r="A157" s="3">
         <v>155</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="35">
         <v>37568</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="12">
+      <c r="A158" s="3">
         <v>156</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="11" t="s">
+      <c r="D158" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E158" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="35">
         <v>35213</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="12">
+      <c r="A159" s="3">
         <v>157</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E159" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="35">
         <v>35305</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="12">
+      <c r="A160" s="3">
         <v>158</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D160" s="11" t="s">
+      <c r="D160" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="35">
         <v>43634</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="12">
+      <c r="A161" s="3">
         <v>159</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E161" s="11" t="s">
+      <c r="E161" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="35">
         <v>42947</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="12">
+      <c r="A162" s="3">
         <v>160</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D162" s="11" t="s">
+      <c r="D162" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E162" s="11" t="s">
+      <c r="E162" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="35">
         <v>42081</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="12">
+      <c r="A163" s="3">
         <v>161</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E163" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="35">
         <v>42761</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="12">
+      <c r="A164" s="3">
         <v>162</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D164" s="11" t="s">
+      <c r="D164" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E164" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="35">
         <v>42741</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="12">
+      <c r="A165" s="3">
         <v>163</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D165" s="11" t="s">
+      <c r="D165" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E165" s="11" t="s">
+      <c r="E165" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="35">
         <v>40618</v>
       </c>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="12">
+      <c r="A166" s="3">
         <v>164</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D166" s="11" t="s">
+      <c r="D166" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="35">
         <v>35517</v>
       </c>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="12">
+      <c r="A167" s="3">
         <v>165</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D167" s="11" t="s">
+      <c r="D167" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E167" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="35">
         <v>39652</v>
       </c>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="12">
+      <c r="A168" s="3">
         <v>166</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D168" s="11" t="s">
+      <c r="D168" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E168" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="35">
         <v>43671</v>
       </c>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="12">
+      <c r="A169" s="3">
         <v>167</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D169" s="11" t="s">
+      <c r="D169" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="35">
         <v>34432</v>
       </c>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="12">
+      <c r="A170" s="3">
         <v>168</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D170" s="11" t="s">
+      <c r="D170" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="35">
         <v>38952</v>
       </c>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="12">
+      <c r="A171" s="3">
         <v>169</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D171" s="11" t="s">
+      <c r="D171" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="35">
         <v>42774</v>
       </c>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="12">
+      <c r="A172" s="3">
         <v>170</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D172" s="11" t="s">
+      <c r="D172" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E172" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="35">
         <v>42348</v>
       </c>
     </row>
-    <row r="173" s="7" customFormat="1" spans="1:6">
-      <c r="A173" s="15">
+    <row r="173" s="30" customFormat="1" spans="1:6">
+      <c r="A173" s="8">
         <v>171</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C173" s="16" t="s">
+      <c r="C173" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="D173" s="16" t="s">
+      <c r="D173" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F173" s="22">
+      <c r="F173" s="21">
         <v>39588</v>
       </c>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="12">
+      <c r="A174" s="3">
         <v>172</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="11" t="s">
+      <c r="D174" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="35">
         <v>39671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="12">
+      <c r="A175" s="3">
         <v>173</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D175" s="11" t="s">
+      <c r="D175" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E175" s="11" t="s">
+      <c r="E175" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="35">
         <v>42755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="12">
+      <c r="A176" s="3">
         <v>174</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E176" s="11" t="s">
+      <c r="E176" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="35">
         <v>37971</v>
       </c>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="12">
+      <c r="A177" s="3">
         <v>175</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="D177" s="11" t="s">
+      <c r="D177" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F177" s="20">
+      <c r="F177" s="35">
         <v>40323</v>
       </c>
     </row>
-    <row r="178" s="7" customFormat="1" spans="1:6">
-      <c r="A178" s="15">
+    <row r="178" s="30" customFormat="1" spans="1:6">
+      <c r="A178" s="8">
         <v>176</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C178" s="16" t="s">
+      <c r="C178" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="D178" s="16" t="s">
+      <c r="D178" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F178" s="22">
+      <c r="F178" s="21">
         <v>40326</v>
       </c>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="12">
+      <c r="A179" s="3">
         <v>177</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D179" s="11" t="s">
+      <c r="D179" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E179" s="11" t="s">
+      <c r="E179" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="20">
+      <c r="F179" s="35">
         <v>44193</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="12">
+      <c r="A180" s="3">
         <v>178</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E180" s="11" t="s">
+      <c r="E180" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F180" s="20">
+      <c r="F180" s="35">
         <v>41193</v>
       </c>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="12">
+      <c r="A181" s="3">
         <v>179</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D181" s="11" t="s">
+      <c r="D181" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="11" t="s">
+      <c r="E181" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F181" s="20">
+      <c r="F181" s="35">
         <v>39037</v>
       </c>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="12">
+      <c r="A182" s="3">
         <v>180</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="35">
         <v>36850</v>
       </c>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="12">
+      <c r="A183" s="3">
         <v>181</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D183" s="11" t="s">
+      <c r="D183" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E183" s="11" t="s">
+      <c r="E183" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F183" s="20">
+      <c r="F183" s="35">
         <v>41009</v>
       </c>
     </row>
     <row r="184" spans="1:6">
-      <c r="A184" s="12">
+      <c r="A184" s="3">
         <v>182</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="E184" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="20">
+      <c r="F184" s="35">
         <v>37538</v>
       </c>
     </row>
     <row r="185" spans="1:6">
-      <c r="A185" s="12">
+      <c r="A185" s="3">
         <v>183</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D185" s="11" t="s">
+      <c r="D185" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E185" s="11" t="s">
+      <c r="E185" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F185" s="20">
+      <c r="F185" s="35">
         <v>36872</v>
       </c>
     </row>
     <row r="186" spans="1:6">
-      <c r="A186" s="12">
+      <c r="A186" s="3">
         <v>184</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="E186" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="35">
         <v>35587</v>
       </c>
     </row>
     <row r="187" spans="1:6">
-      <c r="A187" s="12">
+      <c r="A187" s="3">
         <v>185</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D187" s="11" t="s">
+      <c r="D187" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E187" s="11" t="s">
+      <c r="E187" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F187" s="20">
+      <c r="F187" s="35">
         <v>37498</v>
       </c>
     </row>
     <row r="188" spans="1:6">
-      <c r="A188" s="12">
+      <c r="A188" s="3">
         <v>186</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E188" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="35">
         <v>42584</v>
       </c>
     </row>
     <row r="189" spans="1:6">
-      <c r="A189" s="12">
+      <c r="A189" s="3">
         <v>187</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D189" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E189" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F189" s="20">
+      <c r="F189" s="35">
         <v>33331</v>
       </c>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="12">
+      <c r="A190" s="3">
         <v>188</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="D190" s="11" t="s">
+      <c r="D190" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="E190" s="11" t="s">
+      <c r="E190" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="35">
         <v>39118</v>
       </c>
     </row>
     <row r="191" spans="1:6">
-      <c r="A191" s="12">
+      <c r="A191" s="3">
         <v>189</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="20">
+      <c r="F191" s="35">
         <v>43767</v>
       </c>
     </row>
     <row r="192" spans="1:6">
-      <c r="A192" s="12">
+      <c r="A192" s="3">
         <v>190</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D192" s="11" t="s">
+      <c r="D192" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E192" s="11" t="s">
+      <c r="E192" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F192" s="20">
+      <c r="F192" s="35">
         <v>35381</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="12">
+      <c r="A193" s="3">
         <v>191</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D193" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F193" s="20">
+      <c r="F193" s="35">
         <v>35592</v>
       </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="12">
+      <c r="A194" s="3">
         <v>192</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D194" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E194" s="11" t="s">
+      <c r="E194" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F194" s="20">
+      <c r="F194" s="35">
         <v>35642</v>
       </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="12">
+      <c r="A195" s="3">
         <v>193</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D195" s="11" t="s">
+      <c r="D195" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="20">
+      <c r="F195" s="35">
         <v>42030</v>
       </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="12">
+      <c r="A196" s="3">
         <v>194</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E196" s="11" t="s">
+      <c r="E196" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="20">
+      <c r="F196" s="35">
         <v>42153</v>
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="12">
+      <c r="A197" s="3">
         <v>195</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D197" s="11" t="s">
+      <c r="D197" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E197" s="11" t="s">
+      <c r="E197" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F197" s="20">
+      <c r="F197" s="35">
         <v>42710</v>
       </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="12">
+      <c r="A198" s="3">
         <v>196</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="D198" s="11" t="s">
+      <c r="D198" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E198" s="11" t="s">
+      <c r="E198" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F198" s="20">
+      <c r="F198" s="35">
         <v>39142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="12">
+      <c r="A199" s="3">
         <v>197</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D199" s="11" t="s">
+      <c r="D199" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E199" s="11" t="s">
+      <c r="E199" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F199" s="20">
+      <c r="F199" s="35">
         <v>39441</v>
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="12">
+      <c r="A200" s="3">
         <v>198</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D200" s="11" t="s">
+      <c r="D200" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E200" s="11" t="s">
+      <c r="E200" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="20">
+      <c r="F200" s="35">
         <v>42002</v>
       </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="12">
+      <c r="A201" s="3">
         <v>199</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D201" s="11" t="s">
+      <c r="D201" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="E201" s="11" t="s">
+      <c r="E201" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F201" s="20">
+      <c r="F201" s="35">
         <v>42501</v>
       </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="12">
+      <c r="A202" s="3">
         <v>200</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D202" s="11" t="s">
+      <c r="D202" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E202" s="11" t="s">
+      <c r="E202" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F202" s="20">
+      <c r="F202" s="35">
         <v>40256</v>
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="12">
+      <c r="A203" s="3">
         <v>201</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D203" s="11" t="s">
+      <c r="D203" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="E203" s="11" t="s">
+      <c r="E203" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F203" s="20">
+      <c r="F203" s="35">
         <v>37627</v>
       </c>
     </row>
     <row r="204" spans="1:6">
-      <c r="A204" s="12">
+      <c r="A204" s="3">
         <v>202</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D204" s="11" t="s">
+      <c r="D204" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E204" s="11" t="s">
+      <c r="E204" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F204" s="20">
+      <c r="F204" s="35">
         <v>40505</v>
       </c>
     </row>
     <row r="205" spans="1:6">
-      <c r="A205" s="12">
+      <c r="A205" s="3">
         <v>203</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D205" s="11" t="s">
+      <c r="D205" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="E205" s="11" t="s">
+      <c r="E205" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F205" s="20">
+      <c r="F205" s="35">
         <v>34340</v>
       </c>
     </row>
     <row r="206" spans="1:6">
-      <c r="A206" s="12">
+      <c r="A206" s="3">
         <v>204</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="D206" s="11" t="s">
+      <c r="D206" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E206" s="11" t="s">
+      <c r="E206" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="20">
+      <c r="F206" s="35">
         <v>37130</v>
       </c>
     </row>
     <row r="207" spans="1:6">
-      <c r="A207" s="12">
+      <c r="A207" s="3">
         <v>205</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D207" s="11" t="s">
+      <c r="D207" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E207" s="11" t="s">
+      <c r="E207" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F207" s="20">
+      <c r="F207" s="35">
         <v>35733</v>
       </c>
     </row>
     <row r="208" spans="1:6">
-      <c r="A208" s="12">
+      <c r="A208" s="3">
         <v>206</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="E208" s="11" t="s">
+      <c r="E208" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F208" s="20">
+      <c r="F208" s="35">
         <v>40408</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="12">
+      <c r="A209" s="3">
         <v>207</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="D209" s="11" t="s">
+      <c r="D209" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E209" s="11" t="s">
+      <c r="E209" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="20">
+      <c r="F209" s="35">
         <v>35627</v>
       </c>
     </row>
     <row r="210" spans="1:6">
-      <c r="A210" s="12">
+      <c r="A210" s="3">
         <v>208</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="D210" s="11" t="s">
+      <c r="D210" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E210" s="11" t="s">
+      <c r="E210" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="20">
+      <c r="F210" s="35">
         <v>41816</v>
       </c>
     </row>
     <row r="211" spans="1:6">
-      <c r="A211" s="12">
+      <c r="A211" s="3">
         <v>209</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="D211" s="11" t="s">
+      <c r="D211" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E211" s="11" t="s">
+      <c r="E211" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F211" s="20">
+      <c r="F211" s="35">
         <v>40844</v>
       </c>
     </row>
     <row r="212" spans="1:6">
-      <c r="A212" s="12">
+      <c r="A212" s="3">
         <v>210</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D212" s="11" t="s">
+      <c r="D212" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="E212" s="11" t="s">
+      <c r="E212" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="20">
+      <c r="F212" s="35">
         <v>35912</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="12">
+      <c r="A213" s="3">
         <v>211</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="D213" s="11" t="s">
+      <c r="D213" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E213" s="11" t="s">
+      <c r="E213" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F213" s="20">
+      <c r="F213" s="35">
         <v>36419</v>
       </c>
     </row>
     <row r="214" spans="1:6">
-      <c r="A214" s="12">
+      <c r="A214" s="3">
         <v>212</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D214" s="11" t="s">
+      <c r="D214" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E214" s="11" t="s">
+      <c r="E214" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="20">
+      <c r="F214" s="35">
         <v>37496</v>
       </c>
     </row>
@@ -7404,351 +7426,351 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="9" style="25"/>
+    <col min="4" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="27" t="s">
         <v>674</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="27">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="25">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="25">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="25">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="28" t="s">
         <v>606</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="25">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="25">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="25">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="25">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="25">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3">
+      <c r="A18" s="27">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="27">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3">
+      <c r="A20" s="27">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3">
+      <c r="A21" s="27">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3">
+      <c r="A22" s="27">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3">
+      <c r="A23" s="27">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="A24" s="27">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3">
+      <c r="A25" s="27">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3">
+      <c r="A26" s="27">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3">
+      <c r="A27" s="27">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3">
+      <c r="A28" s="27">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3">
+      <c r="A29" s="27">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="A30" s="27">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3">
+      <c r="A31" s="27">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="25">
         <v>1</v>
       </c>
     </row>
@@ -7756,4 +7778,608 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="4.69230769230769" customWidth="1"/>
+    <col min="2" max="2" width="10.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="10.3076923076923" customWidth="1"/>
+    <col min="4" max="4" width="16.9230769230769" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3076923076923" customWidth="1"/>
+    <col min="6" max="6" width="19.5384615384615" customWidth="1"/>
+    <col min="7" max="9" width="19.5384615384615"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="20">
+        <v>35639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20">
+        <v>35543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="21">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="21">
+        <v>40844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="11">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="22">
+        <v>35948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="11">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22">
+        <v>37923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="21">
+        <v>43389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="21">
+        <v>43228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="22">
+        <v>36875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="11">
+        <v>48</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="22">
+        <v>35607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="21">
+        <v>38173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>53</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="21">
+        <v>37078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="14">
+        <v>74</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="23">
+        <v>35696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="14">
+        <v>80</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="23">
+        <v>39584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="11">
+        <v>82</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="22">
+        <v>39517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11">
+        <v>83</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="22">
+        <v>39419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>90</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="21">
+        <v>35242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>92</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="21">
+        <v>36934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14">
+        <v>95</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="23">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14">
+        <v>99</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" s="23">
+        <v>35710</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11">
+        <v>101</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F22" s="22">
+        <v>37467</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11">
+        <v>104</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="22">
+        <v>35305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17">
+        <v>123</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="24">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17">
+        <v>128</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="24">
+        <v>43322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>125</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" s="21">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>126</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F27" s="21">
+        <v>40116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11">
+        <v>171</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="F28" s="22">
+        <v>39588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11">
+        <v>176</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="F29" s="22">
+        <v>40326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15000" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="26920" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
@@ -2050,10 +2050,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2073,21 +2073,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2103,21 +2125,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,17 +2147,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2149,14 +2156,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2171,22 +2178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2208,8 +2200,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2268,7 +2268,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,7 +2304,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,7 +2382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2304,103 +2412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,37 +2442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,16 +2484,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2513,13 +2530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2539,184 +2560,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2767,6 +2767,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3124,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -3171,7 +3172,7 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="36">
         <v>38930</v>
       </c>
     </row>
@@ -3231,7 +3232,7 @@
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="36">
         <v>36738</v>
       </c>
     </row>
@@ -3251,7 +3252,7 @@
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="36">
         <v>38203</v>
       </c>
     </row>
@@ -3271,7 +3272,7 @@
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <v>40059</v>
       </c>
     </row>
@@ -3331,7 +3332,7 @@
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="36">
         <v>40758</v>
       </c>
     </row>
@@ -3351,7 +3352,7 @@
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="36">
         <v>41040</v>
       </c>
     </row>
@@ -3371,7 +3372,7 @@
       <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="36">
         <v>42545</v>
       </c>
     </row>
@@ -3391,7 +3392,7 @@
       <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="36">
         <v>42165</v>
       </c>
     </row>
@@ -3411,7 +3412,7 @@
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="36">
         <v>38049</v>
       </c>
     </row>
@@ -3431,7 +3432,7 @@
       <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="36">
         <v>40763</v>
       </c>
     </row>
@@ -3491,7 +3492,7 @@
       <c r="E18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="36">
         <v>40604</v>
       </c>
     </row>
@@ -3511,7 +3512,7 @@
       <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="36">
         <v>41667</v>
       </c>
     </row>
@@ -3519,19 +3520,19 @@
       <c r="A20" s="27">
         <v>18</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="37">
         <v>42870</v>
       </c>
     </row>
@@ -3551,7 +3552,7 @@
       <c r="E21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="36">
         <v>40500</v>
       </c>
     </row>
@@ -3571,7 +3572,7 @@
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="36">
         <v>42773</v>
       </c>
     </row>
@@ -3591,7 +3592,7 @@
       <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="36">
         <v>40116</v>
       </c>
     </row>
@@ -3611,7 +3612,7 @@
       <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="36">
         <v>34093</v>
       </c>
     </row>
@@ -3631,7 +3632,7 @@
       <c r="E25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="36">
         <v>37788</v>
       </c>
     </row>
@@ -3651,7 +3652,7 @@
       <c r="E26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="36">
         <v>36817</v>
       </c>
     </row>
@@ -3671,7 +3672,7 @@
       <c r="E27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="36">
         <v>36732</v>
       </c>
     </row>
@@ -3691,7 +3692,7 @@
       <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="36">
         <v>40449</v>
       </c>
     </row>
@@ -3711,7 +3712,7 @@
       <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="36">
         <v>38124</v>
       </c>
     </row>
@@ -3731,7 +3732,7 @@
       <c r="E30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="36">
         <v>35569</v>
       </c>
     </row>
@@ -3751,7 +3752,7 @@
       <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="36">
         <v>40743</v>
       </c>
     </row>
@@ -3771,7 +3772,7 @@
       <c r="E32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="36">
         <v>42822</v>
       </c>
     </row>
@@ -3791,7 +3792,7 @@
       <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="36">
         <v>35417</v>
       </c>
     </row>
@@ -3811,7 +3812,7 @@
       <c r="E34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="36">
         <v>39622</v>
       </c>
     </row>
@@ -3831,7 +3832,7 @@
       <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="36">
         <v>38490</v>
       </c>
     </row>
@@ -3851,7 +3852,7 @@
       <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="36">
         <v>44189</v>
       </c>
     </row>
@@ -3891,7 +3892,7 @@
       <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="36">
         <v>41054</v>
       </c>
     </row>
@@ -3911,7 +3912,7 @@
       <c r="E39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="36">
         <v>35368</v>
       </c>
     </row>
@@ -3951,7 +3952,7 @@
       <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="36">
         <v>36353</v>
       </c>
     </row>
@@ -3971,7 +3972,7 @@
       <c r="E42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="36">
         <v>40716</v>
       </c>
     </row>
@@ -3991,7 +3992,7 @@
       <c r="E43" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="36">
         <v>34460</v>
       </c>
     </row>
@@ -4011,7 +4012,7 @@
       <c r="E44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="36">
         <v>35248</v>
       </c>
     </row>
@@ -4031,7 +4032,7 @@
       <c r="E45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="36">
         <v>40101</v>
       </c>
     </row>
@@ -4051,7 +4052,7 @@
       <c r="E46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="36">
         <v>36096</v>
       </c>
     </row>
@@ -4071,7 +4072,7 @@
       <c r="E47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="36">
         <v>35279</v>
       </c>
     </row>
@@ -4091,7 +4092,7 @@
       <c r="E48" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="36">
         <v>35489</v>
       </c>
     </row>
@@ -4151,7 +4152,7 @@
       <c r="E51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="36">
         <v>35935</v>
       </c>
     </row>
@@ -4191,7 +4192,7 @@
       <c r="E53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="36">
         <v>34250</v>
       </c>
     </row>
@@ -4211,7 +4212,7 @@
       <c r="E54" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="36">
         <v>40850</v>
       </c>
     </row>
@@ -4251,7 +4252,7 @@
       <c r="E56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="36">
         <v>35677</v>
       </c>
     </row>
@@ -4271,47 +4272,47 @@
       <c r="E57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="35">
+      <c r="F57" s="36">
         <v>43601</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3">
+    <row r="58" s="31" customFormat="1" spans="1:6">
+      <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="35">
+      <c r="F58" s="22">
         <v>35292</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3">
+    <row r="59" s="31" customFormat="1" spans="1:6">
+      <c r="A59" s="11">
         <v>57</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="35">
+      <c r="F59" s="22">
         <v>35598</v>
       </c>
     </row>
@@ -4331,7 +4332,7 @@
       <c r="E60" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F60" s="35">
+      <c r="F60" s="36">
         <v>37834</v>
       </c>
     </row>
@@ -4351,7 +4352,7 @@
       <c r="E61" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="35">
+      <c r="F61" s="36">
         <v>40491</v>
       </c>
     </row>
@@ -4371,7 +4372,7 @@
       <c r="E62" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="35">
+      <c r="F62" s="36">
         <v>36896</v>
       </c>
     </row>
@@ -4391,7 +4392,7 @@
       <c r="E63" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="35">
+      <c r="F63" s="36">
         <v>37799</v>
       </c>
     </row>
@@ -4411,7 +4412,7 @@
       <c r="E64" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="36">
         <v>36622</v>
       </c>
     </row>
@@ -4431,7 +4432,7 @@
       <c r="E65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="35">
+      <c r="F65" s="36">
         <v>39297</v>
       </c>
     </row>
@@ -4451,7 +4452,7 @@
       <c r="E66" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F66" s="35">
+      <c r="F66" s="36">
         <v>36902</v>
       </c>
     </row>
@@ -4471,7 +4472,7 @@
       <c r="E67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F67" s="35">
+      <c r="F67" s="36">
         <v>42824</v>
       </c>
     </row>
@@ -4491,7 +4492,7 @@
       <c r="E68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="36">
         <v>43248</v>
       </c>
     </row>
@@ -4511,7 +4512,7 @@
       <c r="E69" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="35">
+      <c r="F69" s="36">
         <v>41535</v>
       </c>
     </row>
@@ -4531,7 +4532,7 @@
       <c r="E70" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="35">
+      <c r="F70" s="36">
         <v>35387</v>
       </c>
     </row>
@@ -4551,7 +4552,7 @@
       <c r="E71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="35">
+      <c r="F71" s="36">
         <v>34404</v>
       </c>
     </row>
@@ -4571,7 +4572,7 @@
       <c r="E72" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="35">
+      <c r="F72" s="36">
         <v>42478</v>
       </c>
     </row>
@@ -4591,7 +4592,7 @@
       <c r="E73" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="35">
+      <c r="F73" s="36">
         <v>42137</v>
       </c>
     </row>
@@ -4611,7 +4612,7 @@
       <c r="E74" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F74" s="35">
+      <c r="F74" s="36">
         <v>38231</v>
       </c>
     </row>
@@ -4631,7 +4632,7 @@
       <c r="E75" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="35">
+      <c r="F75" s="36">
         <v>44453</v>
       </c>
     </row>
@@ -4671,7 +4672,7 @@
       <c r="E77" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="35">
+      <c r="F77" s="36">
         <v>39041</v>
       </c>
     </row>
@@ -4691,7 +4692,7 @@
       <c r="E78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F78" s="35">
+      <c r="F78" s="36">
         <v>37294</v>
       </c>
     </row>
@@ -4711,7 +4712,7 @@
       <c r="E79" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="35">
+      <c r="F79" s="36">
         <v>39701</v>
       </c>
     </row>
@@ -4731,7 +4732,7 @@
       <c r="E80" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="35">
+      <c r="F80" s="36">
         <v>42524</v>
       </c>
     </row>
@@ -4751,7 +4752,7 @@
       <c r="E81" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F81" s="35">
+      <c r="F81" s="36">
         <v>40767</v>
       </c>
     </row>
@@ -4791,7 +4792,7 @@
       <c r="E83" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F83" s="35">
+      <c r="F83" s="36">
         <v>41689</v>
       </c>
     </row>
@@ -4851,7 +4852,7 @@
       <c r="E86" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="35">
+      <c r="F86" s="36">
         <v>42527</v>
       </c>
     </row>
@@ -4891,7 +4892,7 @@
       <c r="E88" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="35">
+      <c r="F88" s="36">
         <v>37705</v>
       </c>
     </row>
@@ -4911,7 +4912,7 @@
       <c r="E89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F89" s="35">
+      <c r="F89" s="36">
         <v>42979</v>
       </c>
     </row>
@@ -4931,7 +4932,7 @@
       <c r="E90" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F90" s="35">
+      <c r="F90" s="36">
         <v>38454</v>
       </c>
     </row>
@@ -4951,7 +4952,7 @@
       <c r="E91" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F91" s="35">
+      <c r="F91" s="36">
         <v>36362</v>
       </c>
     </row>
@@ -4991,7 +4992,7 @@
       <c r="E93" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F93" s="35">
+      <c r="F93" s="36">
         <v>36552</v>
       </c>
     </row>
@@ -5031,7 +5032,7 @@
       <c r="E95" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F95" s="35">
+      <c r="F95" s="36">
         <v>36791</v>
       </c>
     </row>
@@ -5051,7 +5052,7 @@
       <c r="E96" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F96" s="35">
+      <c r="F96" s="36">
         <v>39563</v>
       </c>
     </row>
@@ -5091,7 +5092,7 @@
       <c r="E98" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F98" s="35">
+      <c r="F98" s="36">
         <v>41191</v>
       </c>
     </row>
@@ -5111,7 +5112,7 @@
       <c r="E99" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F99" s="35">
+      <c r="F99" s="36">
         <v>42800</v>
       </c>
     </row>
@@ -5131,7 +5132,7 @@
       <c r="E100" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F100" s="35">
+      <c r="F100" s="36">
         <v>40400</v>
       </c>
     </row>
@@ -5171,7 +5172,7 @@
       <c r="E102" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="35">
+      <c r="F102" s="36">
         <v>35619</v>
       </c>
     </row>
@@ -5211,7 +5212,7 @@
       <c r="E104" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F104" s="35">
+      <c r="F104" s="36">
         <v>39463</v>
       </c>
     </row>
@@ -5231,7 +5232,7 @@
       <c r="E105" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F105" s="35">
+      <c r="F105" s="36">
         <v>35216</v>
       </c>
     </row>
@@ -5271,7 +5272,7 @@
       <c r="E107" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F107" s="35">
+      <c r="F107" s="36">
         <v>35110</v>
       </c>
     </row>
@@ -5291,7 +5292,7 @@
       <c r="E108" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F108" s="35">
+      <c r="F108" s="36">
         <v>36909</v>
       </c>
     </row>
@@ -5311,7 +5312,7 @@
       <c r="E109" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F109" s="35">
+      <c r="F109" s="36">
         <v>44277</v>
       </c>
     </row>
@@ -5331,7 +5332,7 @@
       <c r="E110" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F110" s="35">
+      <c r="F110" s="36">
         <v>37712</v>
       </c>
     </row>
@@ -5351,7 +5352,7 @@
       <c r="E111" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F111" s="35">
+      <c r="F111" s="36">
         <v>40722</v>
       </c>
     </row>
@@ -5371,7 +5372,7 @@
       <c r="E112" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F112" s="35">
+      <c r="F112" s="36">
         <v>43783</v>
       </c>
     </row>
@@ -5391,7 +5392,7 @@
       <c r="E113" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F113" s="35">
+      <c r="F113" s="36">
         <v>35591</v>
       </c>
     </row>
@@ -5411,7 +5412,7 @@
       <c r="E114" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F114" s="35">
+      <c r="F114" s="36">
         <v>41908</v>
       </c>
     </row>
@@ -5431,7 +5432,7 @@
       <c r="E115" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="35">
+      <c r="F115" s="36">
         <v>35759</v>
       </c>
     </row>
@@ -5451,7 +5452,7 @@
       <c r="E116" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F116" s="35">
+      <c r="F116" s="36">
         <v>40472</v>
       </c>
     </row>
@@ -5471,7 +5472,7 @@
       <c r="E117" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F117" s="35">
+      <c r="F117" s="36">
         <v>42536</v>
       </c>
     </row>
@@ -5491,7 +5492,7 @@
       <c r="E118" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F118" s="35">
+      <c r="F118" s="36">
         <v>34309</v>
       </c>
     </row>
@@ -5511,7 +5512,7 @@
       <c r="E119" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F119" s="35">
+      <c r="F119" s="36">
         <v>37042</v>
       </c>
     </row>
@@ -5531,7 +5532,7 @@
       <c r="E120" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F120" s="35">
+      <c r="F120" s="36">
         <v>39190</v>
       </c>
     </row>
@@ -5551,7 +5552,7 @@
       <c r="E121" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F121" s="35">
+      <c r="F121" s="36">
         <v>34340</v>
       </c>
     </row>
@@ -5571,7 +5572,7 @@
       <c r="E122" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F122" s="35">
+      <c r="F122" s="36">
         <v>34432</v>
       </c>
     </row>
@@ -5591,7 +5592,7 @@
       <c r="E123" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F123" s="35">
+      <c r="F123" s="36">
         <v>36510</v>
       </c>
     </row>
@@ -5611,27 +5612,27 @@
       <c r="E124" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F124" s="35">
+      <c r="F124" s="36">
         <v>43570</v>
       </c>
     </row>
-    <row r="125" s="33" customFormat="1" spans="1:6">
-      <c r="A125" s="14">
+    <row r="125" s="34" customFormat="1" spans="1:6">
+      <c r="A125" s="17">
         <v>123</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="15" t="s">
+      <c r="C125" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="D125" s="15" t="s">
+      <c r="D125" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F125" s="23">
+      <c r="F125" s="24">
         <v>43543</v>
       </c>
     </row>
@@ -5651,7 +5652,7 @@
       <c r="E126" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F126" s="35">
+      <c r="F126" s="36">
         <v>40400</v>
       </c>
     </row>
@@ -5711,27 +5712,27 @@
       <c r="E129" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F129" s="35">
+      <c r="F129" s="36">
         <v>35100</v>
       </c>
     </row>
-    <row r="130" s="33" customFormat="1" spans="1:6">
-      <c r="A130" s="14">
+    <row r="130" s="34" customFormat="1" spans="1:6">
+      <c r="A130" s="17">
         <v>128</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="F130" s="23">
+      <c r="F130" s="24">
         <v>43322</v>
       </c>
     </row>
@@ -5751,7 +5752,7 @@
       <c r="E131" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F131" s="35">
+      <c r="F131" s="36">
         <v>40654</v>
       </c>
     </row>
@@ -5771,7 +5772,7 @@
       <c r="E132" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="35">
+      <c r="F132" s="36">
         <v>35599</v>
       </c>
     </row>
@@ -5791,7 +5792,7 @@
       <c r="E133" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F133" s="35">
+      <c r="F133" s="36">
         <v>40829</v>
       </c>
     </row>
@@ -5811,7 +5812,7 @@
       <c r="E134" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F134" s="35">
+      <c r="F134" s="36">
         <v>42138</v>
       </c>
     </row>
@@ -5831,7 +5832,7 @@
       <c r="E135" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F135" s="35">
+      <c r="F135" s="36">
         <v>40186</v>
       </c>
     </row>
@@ -5851,7 +5852,7 @@
       <c r="E136" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F136" s="35">
+      <c r="F136" s="36">
         <v>40379</v>
       </c>
     </row>
@@ -5871,7 +5872,7 @@
       <c r="E137" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F137" s="35">
+      <c r="F137" s="36">
         <v>38048</v>
       </c>
     </row>
@@ -5891,7 +5892,7 @@
       <c r="E138" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F138" s="35">
+      <c r="F138" s="36">
         <v>40849</v>
       </c>
     </row>
@@ -5911,7 +5912,7 @@
       <c r="E139" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F139" s="35">
+      <c r="F139" s="36">
         <v>37609</v>
       </c>
     </row>
@@ -5931,7 +5932,7 @@
       <c r="E140" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="35">
+      <c r="F140" s="36">
         <v>41010</v>
       </c>
     </row>
@@ -5951,7 +5952,7 @@
       <c r="E141" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F141" s="35">
+      <c r="F141" s="36">
         <v>37592</v>
       </c>
     </row>
@@ -5971,7 +5972,7 @@
       <c r="E142" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F142" s="35">
+      <c r="F142" s="36">
         <v>43488</v>
       </c>
     </row>
@@ -5991,7 +5992,7 @@
       <c r="E143" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F143" s="35">
+      <c r="F143" s="36">
         <v>41040</v>
       </c>
     </row>
@@ -6011,7 +6012,7 @@
       <c r="E144" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F144" s="35">
+      <c r="F144" s="36">
         <v>40716</v>
       </c>
     </row>
@@ -6031,7 +6032,7 @@
       <c r="E145" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F145" s="35">
+      <c r="F145" s="36">
         <v>41894</v>
       </c>
     </row>
@@ -6051,7 +6052,7 @@
       <c r="E146" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="35">
+      <c r="F146" s="36">
         <v>38016</v>
       </c>
     </row>
@@ -6071,7 +6072,7 @@
       <c r="E147" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F147" s="35">
+      <c r="F147" s="36">
         <v>40347</v>
       </c>
     </row>
@@ -6091,7 +6092,7 @@
       <c r="E148" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F148" s="35">
+      <c r="F148" s="36">
         <v>39710</v>
       </c>
     </row>
@@ -6111,7 +6112,7 @@
       <c r="E149" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F149" s="35">
+      <c r="F149" s="36">
         <v>40983</v>
       </c>
     </row>
@@ -6131,7 +6132,7 @@
       <c r="E150" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F150" s="35">
+      <c r="F150" s="36">
         <v>39246</v>
       </c>
     </row>
@@ -6151,7 +6152,7 @@
       <c r="E151" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F151" s="35">
+      <c r="F151" s="36">
         <v>44060</v>
       </c>
     </row>
@@ -6171,7 +6172,7 @@
       <c r="E152" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F152" s="35">
+      <c r="F152" s="36">
         <v>36903</v>
       </c>
     </row>
@@ -6191,7 +6192,7 @@
       <c r="E153" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="35">
+      <c r="F153" s="36">
         <v>44046</v>
       </c>
     </row>
@@ -6211,7 +6212,7 @@
       <c r="E154" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F154" s="35">
+      <c r="F154" s="36">
         <v>40220</v>
       </c>
     </row>
@@ -6231,7 +6232,7 @@
       <c r="E155" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F155" s="35">
+      <c r="F155" s="36">
         <v>40059</v>
       </c>
     </row>
@@ -6251,7 +6252,7 @@
       <c r="E156" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F156" s="35">
+      <c r="F156" s="36">
         <v>42859</v>
       </c>
     </row>
@@ -6271,7 +6272,7 @@
       <c r="E157" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F157" s="35">
+      <c r="F157" s="36">
         <v>37568</v>
       </c>
     </row>
@@ -6291,7 +6292,7 @@
       <c r="E158" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F158" s="35">
+      <c r="F158" s="36">
         <v>35213</v>
       </c>
     </row>
@@ -6311,7 +6312,7 @@
       <c r="E159" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F159" s="35">
+      <c r="F159" s="36">
         <v>35305</v>
       </c>
     </row>
@@ -6331,7 +6332,7 @@
       <c r="E160" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F160" s="35">
+      <c r="F160" s="36">
         <v>43634</v>
       </c>
     </row>
@@ -6351,7 +6352,7 @@
       <c r="E161" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F161" s="35">
+      <c r="F161" s="36">
         <v>42947</v>
       </c>
     </row>
@@ -6371,7 +6372,7 @@
       <c r="E162" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F162" s="35">
+      <c r="F162" s="36">
         <v>42081</v>
       </c>
     </row>
@@ -6391,7 +6392,7 @@
       <c r="E163" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F163" s="35">
+      <c r="F163" s="36">
         <v>42761</v>
       </c>
     </row>
@@ -6411,7 +6412,7 @@
       <c r="E164" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F164" s="35">
+      <c r="F164" s="36">
         <v>42741</v>
       </c>
     </row>
@@ -6431,7 +6432,7 @@
       <c r="E165" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F165" s="35">
+      <c r="F165" s="36">
         <v>40618</v>
       </c>
     </row>
@@ -6451,7 +6452,7 @@
       <c r="E166" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F166" s="35">
+      <c r="F166" s="36">
         <v>35517</v>
       </c>
     </row>
@@ -6471,7 +6472,7 @@
       <c r="E167" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F167" s="35">
+      <c r="F167" s="36">
         <v>39652</v>
       </c>
     </row>
@@ -6491,7 +6492,7 @@
       <c r="E168" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F168" s="35">
+      <c r="F168" s="36">
         <v>43671</v>
       </c>
     </row>
@@ -6511,7 +6512,7 @@
       <c r="E169" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F169" s="35">
+      <c r="F169" s="36">
         <v>34432</v>
       </c>
     </row>
@@ -6531,7 +6532,7 @@
       <c r="E170" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F170" s="35">
+      <c r="F170" s="36">
         <v>38952</v>
       </c>
     </row>
@@ -6551,7 +6552,7 @@
       <c r="E171" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F171" s="35">
+      <c r="F171" s="36">
         <v>42774</v>
       </c>
     </row>
@@ -6571,7 +6572,7 @@
       <c r="E172" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F172" s="35">
+      <c r="F172" s="36">
         <v>42348</v>
       </c>
     </row>
@@ -6611,7 +6612,7 @@
       <c r="E174" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F174" s="35">
+      <c r="F174" s="36">
         <v>39671</v>
       </c>
     </row>
@@ -6631,7 +6632,7 @@
       <c r="E175" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F175" s="35">
+      <c r="F175" s="36">
         <v>42755</v>
       </c>
     </row>
@@ -6651,7 +6652,7 @@
       <c r="E176" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F176" s="35">
+      <c r="F176" s="36">
         <v>37971</v>
       </c>
     </row>
@@ -6671,7 +6672,7 @@
       <c r="E177" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F177" s="35">
+      <c r="F177" s="36">
         <v>40323</v>
       </c>
     </row>
@@ -6711,7 +6712,7 @@
       <c r="E179" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="35">
+      <c r="F179" s="36">
         <v>44193</v>
       </c>
     </row>
@@ -6731,7 +6732,7 @@
       <c r="E180" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F180" s="35">
+      <c r="F180" s="36">
         <v>41193</v>
       </c>
     </row>
@@ -6751,7 +6752,7 @@
       <c r="E181" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F181" s="35">
+      <c r="F181" s="36">
         <v>39037</v>
       </c>
     </row>
@@ -6771,7 +6772,7 @@
       <c r="E182" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F182" s="35">
+      <c r="F182" s="36">
         <v>36850</v>
       </c>
     </row>
@@ -6791,7 +6792,7 @@
       <c r="E183" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F183" s="35">
+      <c r="F183" s="36">
         <v>41009</v>
       </c>
     </row>
@@ -6811,7 +6812,7 @@
       <c r="E184" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="35">
+      <c r="F184" s="36">
         <v>37538</v>
       </c>
     </row>
@@ -6831,7 +6832,7 @@
       <c r="E185" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F185" s="35">
+      <c r="F185" s="36">
         <v>36872</v>
       </c>
     </row>
@@ -6851,7 +6852,7 @@
       <c r="E186" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F186" s="35">
+      <c r="F186" s="36">
         <v>35587</v>
       </c>
     </row>
@@ -6871,7 +6872,7 @@
       <c r="E187" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F187" s="35">
+      <c r="F187" s="36">
         <v>37498</v>
       </c>
     </row>
@@ -6891,7 +6892,7 @@
       <c r="E188" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F188" s="35">
+      <c r="F188" s="36">
         <v>42584</v>
       </c>
     </row>
@@ -6911,7 +6912,7 @@
       <c r="E189" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F189" s="35">
+      <c r="F189" s="36">
         <v>33331</v>
       </c>
     </row>
@@ -6931,7 +6932,7 @@
       <c r="E190" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F190" s="35">
+      <c r="F190" s="36">
         <v>39118</v>
       </c>
     </row>
@@ -6951,7 +6952,7 @@
       <c r="E191" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F191" s="35">
+      <c r="F191" s="36">
         <v>43767</v>
       </c>
     </row>
@@ -6971,7 +6972,7 @@
       <c r="E192" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F192" s="35">
+      <c r="F192" s="36">
         <v>35381</v>
       </c>
     </row>
@@ -6991,7 +6992,7 @@
       <c r="E193" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F193" s="35">
+      <c r="F193" s="36">
         <v>35592</v>
       </c>
     </row>
@@ -7011,7 +7012,7 @@
       <c r="E194" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F194" s="35">
+      <c r="F194" s="36">
         <v>35642</v>
       </c>
     </row>
@@ -7031,7 +7032,7 @@
       <c r="E195" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F195" s="35">
+      <c r="F195" s="36">
         <v>42030</v>
       </c>
     </row>
@@ -7051,7 +7052,7 @@
       <c r="E196" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="35">
+      <c r="F196" s="36">
         <v>42153</v>
       </c>
     </row>
@@ -7071,7 +7072,7 @@
       <c r="E197" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F197" s="35">
+      <c r="F197" s="36">
         <v>42710</v>
       </c>
     </row>
@@ -7091,7 +7092,7 @@
       <c r="E198" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F198" s="35">
+      <c r="F198" s="36">
         <v>39142</v>
       </c>
     </row>
@@ -7111,7 +7112,7 @@
       <c r="E199" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F199" s="35">
+      <c r="F199" s="36">
         <v>39441</v>
       </c>
     </row>
@@ -7131,7 +7132,7 @@
       <c r="E200" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="35">
+      <c r="F200" s="36">
         <v>42002</v>
       </c>
     </row>
@@ -7151,7 +7152,7 @@
       <c r="E201" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F201" s="35">
+      <c r="F201" s="36">
         <v>42501</v>
       </c>
     </row>
@@ -7171,7 +7172,7 @@
       <c r="E202" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F202" s="35">
+      <c r="F202" s="36">
         <v>40256</v>
       </c>
     </row>
@@ -7191,7 +7192,7 @@
       <c r="E203" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F203" s="35">
+      <c r="F203" s="36">
         <v>37627</v>
       </c>
     </row>
@@ -7211,7 +7212,7 @@
       <c r="E204" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F204" s="35">
+      <c r="F204" s="36">
         <v>40505</v>
       </c>
     </row>
@@ -7231,7 +7232,7 @@
       <c r="E205" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F205" s="35">
+      <c r="F205" s="36">
         <v>34340</v>
       </c>
     </row>
@@ -7251,7 +7252,7 @@
       <c r="E206" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F206" s="35">
+      <c r="F206" s="36">
         <v>37130</v>
       </c>
     </row>
@@ -7271,7 +7272,7 @@
       <c r="E207" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F207" s="35">
+      <c r="F207" s="36">
         <v>35733</v>
       </c>
     </row>
@@ -7291,7 +7292,7 @@
       <c r="E208" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F208" s="35">
+      <c r="F208" s="36">
         <v>40408</v>
       </c>
     </row>
@@ -7311,7 +7312,7 @@
       <c r="E209" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F209" s="35">
+      <c r="F209" s="36">
         <v>35627</v>
       </c>
     </row>
@@ -7331,7 +7332,7 @@
       <c r="E210" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F210" s="35">
+      <c r="F210" s="36">
         <v>41816</v>
       </c>
     </row>
@@ -7351,7 +7352,7 @@
       <c r="E211" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F211" s="35">
+      <c r="F211" s="36">
         <v>40844</v>
       </c>
     </row>
@@ -7371,7 +7372,7 @@
       <c r="E212" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F212" s="35">
+      <c r="F212" s="36">
         <v>35912</v>
       </c>
     </row>
@@ -7391,7 +7392,7 @@
       <c r="E213" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F213" s="35">
+      <c r="F213" s="36">
         <v>36419</v>
       </c>
     </row>
@@ -7411,7 +7412,7 @@
       <c r="E214" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F214" s="35">
+      <c r="F214" s="36">
         <v>37496</v>
       </c>
     </row>
@@ -7427,7 +7428,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -7514,7 +7515,7 @@
       <c r="A8" s="27">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>177</v>
       </c>
       <c r="C8" s="25">
@@ -7785,8 +7786,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/stat_arb/stock_hold.xlsx
+++ b/stat_arb/stock_hold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26920" windowHeight="13420"/>
+    <workbookView windowWidth="26920" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="持仓" sheetId="1" r:id="rId1"/>
@@ -2049,11 +2049,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2073,7 +2073,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2086,15 +2107,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2108,16 +2130,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,60 +2185,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,7 +2208,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2212,14 +2220,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2268,7 +2268,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2280,13 +2316,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,19 +2346,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,37 +2376,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,85 +2442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2489,58 +2489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2562,157 +2515,204 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3125,7 +3125,7 @@
   <sheetPr/>
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
@@ -7786,8 +7786,8 @@
   <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
